--- a/JupyterNotebooks/AvgHW/Alpha4F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.9771689462865695</v>
+      </c>
+      <c r="D3">
+        <v>1.002750042853877</v>
+      </c>
+      <c r="E3">
         <v>1.011270260820502</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.9771689462865695</v>
-      </c>
-      <c r="E3">
-        <v>1.002750042853877</v>
-      </c>
-      <c r="F3">
-        <v>1.011270260820502</v>
       </c>
       <c r="G3">
         <v>1.005567019423683</v>
@@ -692,10 +644,10 @@
         <v>0.9892505643275699</v>
       </c>
       <c r="I3">
+        <v>1.011270260820502</v>
+      </c>
+      <c r="J3">
         <v>1.005213652666608</v>
-      </c>
-      <c r="J3">
-        <v>0.9771689462865695</v>
       </c>
       <c r="K3">
         <v>1.011270260820502</v>
@@ -728,7 +680,7 @@
         <v>0.9985367477298014</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.9558718183080707</v>
+      </c>
+      <c r="D4">
+        <v>1.00518049189032</v>
+      </c>
+      <c r="E4">
         <v>1.022080516986999</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>0.9558718183080707</v>
-      </c>
-      <c r="E4">
-        <v>1.00518049189032</v>
-      </c>
-      <c r="F4">
-        <v>1.022080516986999</v>
       </c>
       <c r="G4">
         <v>1.010511115276987</v>
       </c>
       <c r="H4">
-        <v>0.9792312084819305</v>
+        <v>0.9792312084819303</v>
       </c>
       <c r="I4">
+        <v>1.022080516986999</v>
+      </c>
+      <c r="J4">
         <v>1.010064541849659</v>
-      </c>
-      <c r="J4">
-        <v>0.9558718183080707</v>
       </c>
       <c r="K4">
         <v>1.022080516986999</v>
@@ -790,7 +742,7 @@
         <v>0.997156615465661</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,16 +750,16 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9163837054888958</v>
+      </c>
+      <c r="D5">
+        <v>1.010544962895993</v>
+      </c>
+      <c r="E5">
         <v>1.040499617253213</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0.9163837054888958</v>
-      </c>
-      <c r="E5">
-        <v>1.010544962895993</v>
-      </c>
-      <c r="F5">
-        <v>1.040499617253213</v>
       </c>
       <c r="G5">
         <v>1.021984773058624</v>
@@ -816,10 +768,10 @@
         <v>0.9602605921789186</v>
       </c>
       <c r="I5">
+        <v>1.040499617253213</v>
+      </c>
+      <c r="J5">
         <v>1.019193715702309</v>
-      </c>
-      <c r="J5">
-        <v>0.9163837054888958</v>
       </c>
       <c r="K5">
         <v>1.040499617253213</v>
@@ -852,7 +804,7 @@
         <v>0.9948112277629922</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,16 +812,16 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.8777910932755404</v>
+      </c>
+      <c r="D6">
+        <v>1.015906075657626</v>
+      </c>
+      <c r="E6">
         <v>1.058490550320696</v>
       </c>
-      <c r="D6">
-        <v>0.8777910932755403</v>
-      </c>
-      <c r="E6">
-        <v>1.015906075657626</v>
-      </c>
       <c r="F6">
-        <v>1.058490550320696</v>
+        <v>0.8777910932755404</v>
       </c>
       <c r="G6">
         <v>1.033011975974349</v>
@@ -878,10 +830,10 @@
         <v>0.94168304463931</v>
       </c>
       <c r="I6">
+        <v>1.058490550320696</v>
+      </c>
+      <c r="J6">
         <v>1.028150552694659</v>
-      </c>
-      <c r="J6">
-        <v>0.8777910932755403</v>
       </c>
       <c r="K6">
         <v>1.058490550320696</v>
@@ -890,13 +842,13 @@
         <v>1.015906075657626</v>
       </c>
       <c r="M6">
-        <v>0.9468485844665833</v>
+        <v>0.9468485844665834</v>
       </c>
       <c r="N6">
-        <v>0.9468485844665833</v>
+        <v>0.9468485844665834</v>
       </c>
       <c r="O6">
-        <v>0.9451267378574921</v>
+        <v>0.9451267378574922</v>
       </c>
       <c r="P6">
         <v>0.9840625730846208</v>
@@ -914,7 +866,7 @@
         <v>0.9925055487603633</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,16 +874,16 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999174981544495</v>
+        <v>0.998946366699789</v>
       </c>
       <c r="D7">
-        <v>0.9989463666997889</v>
+        <v>1.000465791535869</v>
       </c>
       <c r="E7">
-        <v>1.000465791535869</v>
+        <v>0.9999174981544493</v>
       </c>
       <c r="F7">
-        <v>0.9999174981544495</v>
+        <v>0.998946366699789</v>
       </c>
       <c r="G7">
         <v>1.001432436976523</v>
@@ -940,22 +892,22 @@
         <v>0.9992594563126496</v>
       </c>
       <c r="I7">
+        <v>0.9999174981544493</v>
+      </c>
+      <c r="J7">
         <v>1.000303370651129</v>
       </c>
-      <c r="J7">
-        <v>0.9989463666997889</v>
-      </c>
       <c r="K7">
-        <v>0.9999174981544495</v>
+        <v>0.9999174981544493</v>
       </c>
       <c r="L7">
         <v>1.000465791535869</v>
       </c>
       <c r="M7">
-        <v>0.9997060791178288</v>
+        <v>0.9997060791178289</v>
       </c>
       <c r="N7">
-        <v>0.9997060791178288</v>
+        <v>0.9997060791178289</v>
       </c>
       <c r="O7">
         <v>0.9995572048494358</v>
@@ -967,16 +919,16 @@
         <v>0.9997765521300357</v>
       </c>
       <c r="R7">
-        <v>0.9998117886361392</v>
+        <v>0.9998117886361391</v>
       </c>
       <c r="S7">
-        <v>0.9998117886361392</v>
+        <v>0.9998117886361391</v>
       </c>
       <c r="T7">
         <v>1.000054153388401</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9970432092724693</v>
+      </c>
+      <c r="D8">
+        <v>1.001127648254435</v>
+      </c>
+      <c r="E8">
         <v>1.000105370039895</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>0.9970432092724693</v>
-      </c>
-      <c r="E8">
-        <v>1.001127648254435</v>
-      </c>
-      <c r="F8">
-        <v>1.000105370039895</v>
       </c>
       <c r="G8">
         <v>1.003458333065472</v>
       </c>
       <c r="H8">
-        <v>0.9980231408363288</v>
+        <v>0.9980231408363287</v>
       </c>
       <c r="I8">
+        <v>1.000105370039895</v>
+      </c>
+      <c r="J8">
         <v>1.000823550494078</v>
-      </c>
-      <c r="J8">
-        <v>0.9970432092724693</v>
       </c>
       <c r="K8">
         <v>1.000105370039895</v>
@@ -1038,7 +990,7 @@
         <v>1.000096875327113</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,16 +998,16 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>0.9956700557465415</v>
+      </c>
+      <c r="D9">
+        <v>1.001327291982254</v>
+      </c>
+      <c r="E9">
         <v>1.000775848417098</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>0.9956700557465415</v>
-      </c>
-      <c r="E9">
-        <v>1.001327291982254</v>
-      </c>
-      <c r="F9">
-        <v>1.000775848417098</v>
       </c>
       <c r="G9">
         <v>1.004192643581851</v>
@@ -1064,10 +1016,10 @@
         <v>0.9972516889690823</v>
       </c>
       <c r="I9">
+        <v>1.000775848417098</v>
+      </c>
+      <c r="J9">
         <v>1.001154522478958</v>
-      </c>
-      <c r="J9">
-        <v>0.9956700557465415</v>
       </c>
       <c r="K9">
         <v>1.000775848417098</v>
@@ -1100,7 +1052,7 @@
         <v>1.000062008529298</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>0.9909824493107767</v>
+      </c>
+      <c r="D10">
+        <v>1.003127921192825</v>
+      </c>
+      <c r="E10">
         <v>1.000915342882885</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>0.9909824493107767</v>
       </c>
-      <c r="E10">
-        <v>1.003127921192825</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
+        <v>1.009869014499187</v>
+      </c>
+      <c r="H10">
+        <v>0.9940801794604058</v>
+      </c>
+      <c r="I10">
         <v>1.000915342882885</v>
       </c>
-      <c r="G10">
-        <v>1.009869014499186</v>
-      </c>
-      <c r="H10">
-        <v>0.9940801794604059</v>
-      </c>
-      <c r="I10">
+      <c r="J10">
         <v>1.002458749692057</v>
-      </c>
-      <c r="J10">
-        <v>0.9909824493107767</v>
       </c>
       <c r="K10">
         <v>1.000915342882885</v>
@@ -1162,7 +1114,7 @@
         <v>1.000238942839689</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,16 +1122,16 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>0.9844616144169972</v>
+      </c>
+      <c r="D11">
+        <v>1.00456182741146</v>
+      </c>
+      <c r="E11">
         <v>1.003309241633728</v>
       </c>
-      <c r="D11">
-        <v>0.984461614416997</v>
-      </c>
-      <c r="E11">
-        <v>1.00456182741146</v>
-      </c>
       <c r="F11">
-        <v>1.003309241633728</v>
+        <v>0.9844616144169972</v>
       </c>
       <c r="G11">
         <v>1.01460299743839</v>
@@ -1188,10 +1140,10 @@
         <v>0.9900961801399841</v>
       </c>
       <c r="I11">
+        <v>1.003309241633728</v>
+      </c>
+      <c r="J11">
         <v>1.004156043687364</v>
-      </c>
-      <c r="J11">
-        <v>0.984461614416997</v>
       </c>
       <c r="K11">
         <v>1.003309241633728</v>
@@ -1200,13 +1152,13 @@
         <v>1.00456182741146</v>
       </c>
       <c r="M11">
-        <v>0.9945117209142285</v>
+        <v>0.9945117209142287</v>
       </c>
       <c r="N11">
-        <v>0.9945117209142285</v>
+        <v>0.9945117209142287</v>
       </c>
       <c r="O11">
-        <v>0.9930398739894803</v>
+        <v>0.9930398739894805</v>
       </c>
       <c r="P11">
         <v>0.9974442278207283</v>
@@ -1224,7 +1176,7 @@
         <v>1.000197984121321</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,16 +1184,16 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9922572471170029</v>
+        <v>1.101626299898492</v>
       </c>
       <c r="D12">
+        <v>0.9489364297427153</v>
+      </c>
+      <c r="E12">
+        <v>0.9922572471170032</v>
+      </c>
+      <c r="F12">
         <v>1.101626299898492</v>
-      </c>
-      <c r="E12">
-        <v>0.9489364297427153</v>
-      </c>
-      <c r="F12">
-        <v>0.9922572471170029</v>
       </c>
       <c r="G12">
         <v>0.7767753123789009</v>
@@ -1250,13 +1202,13 @@
         <v>1.110748655632942</v>
       </c>
       <c r="I12">
+        <v>0.9922572471170032</v>
+      </c>
+      <c r="J12">
         <v>0.9616991050101645</v>
       </c>
-      <c r="J12">
-        <v>1.101626299898492</v>
-      </c>
       <c r="K12">
-        <v>0.9922572471170029</v>
+        <v>0.9922572471170032</v>
       </c>
       <c r="L12">
         <v>0.9489364297427153</v>
@@ -1274,19 +1226,19 @@
         <v>1.01427332558607</v>
       </c>
       <c r="Q12">
-        <v>1.01427332558607</v>
+        <v>1.014273325586071</v>
       </c>
       <c r="R12">
-        <v>1.008769305968803</v>
+        <v>1.008769305968804</v>
       </c>
       <c r="S12">
-        <v>1.008769305968803</v>
+        <v>1.008769305968804</v>
       </c>
       <c r="T12">
-        <v>0.9820071749633695</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9820071749633698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,31 +1246,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9921721339540674</v>
+        <v>1.132883522405263</v>
       </c>
       <c r="D13">
+        <v>0.9720640083857234</v>
+      </c>
+      <c r="E13">
+        <v>0.9921721339540672</v>
+      </c>
+      <c r="F13">
         <v>1.132883522405263</v>
-      </c>
-      <c r="E13">
-        <v>0.9720640083857234</v>
-      </c>
-      <c r="F13">
-        <v>0.9921721339540674</v>
       </c>
       <c r="G13">
         <v>1.017604791367014</v>
       </c>
       <c r="H13">
-        <v>1.022855579633405</v>
+        <v>1.022855579633406</v>
       </c>
       <c r="I13">
+        <v>0.9921721339540672</v>
+      </c>
+      <c r="J13">
         <v>0.9778762920013906</v>
       </c>
-      <c r="J13">
-        <v>1.132883522405263</v>
-      </c>
       <c r="K13">
-        <v>0.9921721339540674</v>
+        <v>0.9921721339540672</v>
       </c>
       <c r="L13">
         <v>0.9720640083857234</v>
@@ -1339,16 +1291,16 @@
         <v>1.032373221581685</v>
       </c>
       <c r="R13">
-        <v>1.022322949674781</v>
+        <v>1.02232294967478</v>
       </c>
       <c r="S13">
-        <v>1.022322949674781</v>
+        <v>1.02232294967478</v>
       </c>
       <c r="T13">
         <v>1.019242721291144</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,34 +1308,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.908012620831681</v>
+        <v>1.549115821502245</v>
       </c>
       <c r="D14">
+        <v>0.8585598533017926</v>
+      </c>
+      <c r="E14">
+        <v>0.9080126208316811</v>
+      </c>
+      <c r="F14">
         <v>1.549115821502245</v>
       </c>
-      <c r="E14">
-        <v>0.8585598533017927</v>
-      </c>
-      <c r="F14">
-        <v>0.908012620831681</v>
-      </c>
       <c r="G14">
-        <v>0.7087614410486682</v>
+        <v>0.7087614410486681</v>
       </c>
       <c r="H14">
         <v>1.256056155235608</v>
       </c>
       <c r="I14">
-        <v>0.8728869136595594</v>
+        <v>0.9080126208316811</v>
       </c>
       <c r="J14">
-        <v>1.549115821502245</v>
+        <v>0.8728869136595593</v>
       </c>
       <c r="K14">
-        <v>0.908012620831681</v>
+        <v>0.9080126208316811</v>
       </c>
       <c r="L14">
-        <v>0.8585598533017927</v>
+        <v>0.8585598533017926</v>
       </c>
       <c r="M14">
         <v>1.203837837402019</v>
@@ -1407,10 +1359,10 @@
         <v>1.05592522911685</v>
       </c>
       <c r="T14">
-        <v>1.025565467596593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.025565467596592</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,16 +1370,16 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.042385046805335</v>
+      </c>
+      <c r="D15">
+        <v>0.9969324457096592</v>
+      </c>
+      <c r="E15">
         <v>0.9249399639844021</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>1.042385046805335</v>
-      </c>
-      <c r="E15">
-        <v>0.9969324457096592</v>
-      </c>
-      <c r="F15">
-        <v>0.9249399639844021</v>
       </c>
       <c r="G15">
         <v>0.8961665861003301</v>
@@ -1436,10 +1388,10 @@
         <v>1.079648388150934</v>
       </c>
       <c r="I15">
+        <v>0.9249399639844021</v>
+      </c>
+      <c r="J15">
         <v>0.9759547582133786</v>
-      </c>
-      <c r="J15">
-        <v>1.042385046805335</v>
       </c>
       <c r="K15">
         <v>0.9249399639844021</v>
@@ -1457,7 +1409,7 @@
         <v>1.039655293555309</v>
       </c>
       <c r="P15">
-        <v>0.9880858188331322</v>
+        <v>0.988085818833132</v>
       </c>
       <c r="Q15">
         <v>0.988085818833132</v>
@@ -1472,7 +1424,7 @@
         <v>0.9860045314940065</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9974529059435068</v>
+        <v>0.5650994537698784</v>
       </c>
       <c r="D16">
-        <v>1.000777859250564</v>
+        <v>1.058589072698213</v>
       </c>
       <c r="E16">
-        <v>1.000970396618215</v>
+        <v>1.203122786935792</v>
       </c>
       <c r="F16">
-        <v>0.9974529059435068</v>
+        <v>0.5650994537698784</v>
       </c>
       <c r="G16">
-        <v>1.002351910355692</v>
+        <v>1.12727908814874</v>
       </c>
       <c r="H16">
-        <v>1.000072089021915</v>
+        <v>0.7910595469393069</v>
       </c>
       <c r="I16">
-        <v>0.9999376430275392</v>
+        <v>1.203122786935792</v>
       </c>
       <c r="J16">
-        <v>1.000777859250564</v>
+        <v>1.100445742085453</v>
       </c>
       <c r="K16">
-        <v>0.9974529059435068</v>
+        <v>1.203122786935792</v>
       </c>
       <c r="L16">
-        <v>1.000970396618215</v>
+        <v>1.058589072698213</v>
       </c>
       <c r="M16">
-        <v>1.000874127934389</v>
+        <v>0.8118442632340459</v>
       </c>
       <c r="N16">
-        <v>1.000874127934389</v>
+        <v>0.8118442632340459</v>
       </c>
       <c r="O16">
-        <v>1.000606781630231</v>
+        <v>0.8049160244691329</v>
       </c>
       <c r="P16">
-        <v>0.9997337206040952</v>
+        <v>0.9422704378012945</v>
       </c>
       <c r="Q16">
-        <v>0.9997337206040952</v>
+        <v>0.9422704378012945</v>
       </c>
       <c r="R16">
-        <v>0.9991635169389481</v>
+        <v>1.007483525084919</v>
       </c>
       <c r="S16">
-        <v>0.9991635169389481</v>
+        <v>1.007483525084919</v>
       </c>
       <c r="T16">
-        <v>1.000260467369572</v>
+        <v>0.974265948429564</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.003227373974132</v>
+        <v>0.6643206483116052</v>
       </c>
       <c r="D17">
-        <v>0.9974867230340878</v>
+        <v>1.058270036562936</v>
       </c>
       <c r="E17">
-        <v>0.9993352791731164</v>
+        <v>1.132840576304303</v>
       </c>
       <c r="F17">
-        <v>1.003227373974132</v>
+        <v>0.6643206483116052</v>
       </c>
       <c r="G17">
-        <v>0.9987137058077364</v>
+        <v>1.14113478062869</v>
       </c>
       <c r="H17">
-        <v>0.9989709214482465</v>
+        <v>0.8303463523444556</v>
       </c>
       <c r="I17">
-        <v>1.000476751768108</v>
+        <v>1.132840576304303</v>
       </c>
       <c r="J17">
-        <v>0.9974867230340878</v>
+        <v>1.079793233163821</v>
       </c>
       <c r="K17">
-        <v>1.003227373974132</v>
+        <v>1.132840576304303</v>
       </c>
       <c r="L17">
-        <v>0.9993352791731164</v>
+        <v>1.058270036562936</v>
       </c>
       <c r="M17">
-        <v>0.998411001103602</v>
+        <v>0.8612953424372707</v>
       </c>
       <c r="N17">
-        <v>0.998411001103602</v>
+        <v>0.8612953424372707</v>
       </c>
       <c r="O17">
-        <v>0.9985976412184835</v>
+        <v>0.8509790124063322</v>
       </c>
       <c r="P17">
-        <v>1.000016458727112</v>
+        <v>0.9518104203929481</v>
       </c>
       <c r="Q17">
-        <v>1.000016458727112</v>
+        <v>0.9518104203929481</v>
       </c>
       <c r="R17">
-        <v>1.000819187538867</v>
+        <v>0.9970679593707867</v>
       </c>
       <c r="S17">
-        <v>1.000819187538867</v>
+        <v>0.9970679593707867</v>
       </c>
       <c r="T17">
-        <v>0.9997017925342379</v>
+        <v>0.9844509378859684</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9969845637498859</v>
+        <v>0.8626631332337098</v>
       </c>
       <c r="D18">
-        <v>0.9950332143581758</v>
+        <v>1.056977340460227</v>
       </c>
       <c r="E18">
-        <v>1.003334811808597</v>
+        <v>0.9936106352736677</v>
       </c>
       <c r="F18">
-        <v>0.9969845637498859</v>
+        <v>0.8626631332337098</v>
       </c>
       <c r="G18">
-        <v>1.007481577145306</v>
+        <v>1.166862459218242</v>
       </c>
       <c r="H18">
-        <v>0.9969516224109557</v>
+        <v>0.9092142005876882</v>
       </c>
       <c r="I18">
-        <v>1.001408943704903</v>
+        <v>0.9936106352736677</v>
       </c>
       <c r="J18">
-        <v>0.9950332143581758</v>
+        <v>1.03841136121303</v>
       </c>
       <c r="K18">
-        <v>0.9969845637498859</v>
+        <v>0.9936106352736677</v>
       </c>
       <c r="L18">
-        <v>1.003334811808597</v>
+        <v>1.056977340460227</v>
       </c>
       <c r="M18">
-        <v>0.9991840130833864</v>
+        <v>0.9598202368469684</v>
       </c>
       <c r="N18">
-        <v>0.9991840130833864</v>
+        <v>0.9598202368469684</v>
       </c>
       <c r="O18">
-        <v>0.9984398828592429</v>
+        <v>0.942951558093875</v>
       </c>
       <c r="P18">
-        <v>0.9984508633055529</v>
+        <v>0.9710837029892015</v>
       </c>
       <c r="Q18">
-        <v>0.9984508633055529</v>
+        <v>0.9710837029892015</v>
       </c>
       <c r="R18">
-        <v>0.9980842884166361</v>
+        <v>0.9767154360603181</v>
       </c>
       <c r="S18">
-        <v>0.9980842884166361</v>
+        <v>0.9767154360603181</v>
       </c>
       <c r="T18">
-        <v>1.000199122196304</v>
+        <v>1.004623188331094</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.8585668678351542</v>
+      </c>
+      <c r="D19">
+        <v>1.068228221378537</v>
+      </c>
+      <c r="E19">
+        <v>0.9760374462495258</v>
+      </c>
+      <c r="F19">
+        <v>0.8585668678351542</v>
+      </c>
+      <c r="G19">
+        <v>1.201618243195922</v>
+      </c>
+      <c r="H19">
+        <v>0.9006826653629786</v>
+      </c>
+      <c r="I19">
+        <v>0.9760374462495258</v>
+      </c>
+      <c r="J19">
+        <v>1.041223683775198</v>
+      </c>
+      <c r="K19">
+        <v>0.9760374462495258</v>
+      </c>
+      <c r="L19">
+        <v>1.068228221378537</v>
+      </c>
+      <c r="M19">
+        <v>0.9633975446068459</v>
+      </c>
+      <c r="N19">
+        <v>0.9633975446068459</v>
+      </c>
+      <c r="O19">
+        <v>0.9424925848588902</v>
+      </c>
+      <c r="P19">
+        <v>0.967610845154406</v>
+      </c>
+      <c r="Q19">
+        <v>0.967610845154406</v>
+      </c>
+      <c r="R19">
+        <v>0.969717495428186</v>
+      </c>
+      <c r="S19">
+        <v>0.969717495428186</v>
+      </c>
+      <c r="T19">
+        <v>1.00772618796622</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000777859250564</v>
+      </c>
+      <c r="D20">
+        <v>1.000970396618215</v>
+      </c>
+      <c r="E20">
+        <v>0.9974529059435068</v>
+      </c>
+      <c r="F20">
+        <v>1.000777859250564</v>
+      </c>
+      <c r="G20">
+        <v>1.002351910355692</v>
+      </c>
+      <c r="H20">
+        <v>1.000072089021915</v>
+      </c>
+      <c r="I20">
+        <v>0.9974529059435068</v>
+      </c>
+      <c r="J20">
+        <v>0.9999376430275392</v>
+      </c>
+      <c r="K20">
+        <v>0.9974529059435068</v>
+      </c>
+      <c r="L20">
+        <v>1.000970396618215</v>
+      </c>
+      <c r="M20">
+        <v>1.00087412793439</v>
+      </c>
+      <c r="N20">
+        <v>1.00087412793439</v>
+      </c>
+      <c r="O20">
+        <v>1.000606781630231</v>
+      </c>
+      <c r="P20">
+        <v>0.9997337206040954</v>
+      </c>
+      <c r="Q20">
+        <v>0.9997337206040952</v>
+      </c>
+      <c r="R20">
+        <v>0.9991635169389481</v>
+      </c>
+      <c r="S20">
+        <v>0.9991635169389481</v>
+      </c>
+      <c r="T20">
+        <v>1.000260467369572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9974867230340878</v>
+      </c>
+      <c r="D21">
+        <v>0.999335279173116</v>
+      </c>
+      <c r="E21">
+        <v>1.003227373974132</v>
+      </c>
+      <c r="F21">
+        <v>0.9974867230340878</v>
+      </c>
+      <c r="G21">
+        <v>0.9987137058077364</v>
+      </c>
+      <c r="H21">
+        <v>0.9989709214482465</v>
+      </c>
+      <c r="I21">
+        <v>1.003227373974132</v>
+      </c>
+      <c r="J21">
+        <v>1.000476751768108</v>
+      </c>
+      <c r="K21">
+        <v>1.003227373974132</v>
+      </c>
+      <c r="L21">
+        <v>0.999335279173116</v>
+      </c>
+      <c r="M21">
+        <v>0.9984110011036019</v>
+      </c>
+      <c r="N21">
+        <v>0.9984110011036019</v>
+      </c>
+      <c r="O21">
+        <v>0.9985976412184835</v>
+      </c>
+      <c r="P21">
+        <v>1.000016458727112</v>
+      </c>
+      <c r="Q21">
+        <v>1.000016458727112</v>
+      </c>
+      <c r="R21">
+        <v>1.000819187538867</v>
+      </c>
+      <c r="S21">
+        <v>1.000819187538867</v>
+      </c>
+      <c r="T21">
+        <v>0.9997017925342377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9950332143581752</v>
+      </c>
+      <c r="D22">
+        <v>1.003334811808597</v>
+      </c>
+      <c r="E22">
+        <v>0.9969845637498858</v>
+      </c>
+      <c r="F22">
+        <v>0.9950332143581752</v>
+      </c>
+      <c r="G22">
+        <v>1.007481577145306</v>
+      </c>
+      <c r="H22">
+        <v>0.9969516224109556</v>
+      </c>
+      <c r="I22">
+        <v>0.9969845637498858</v>
+      </c>
+      <c r="J22">
+        <v>1.001408943704903</v>
+      </c>
+      <c r="K22">
+        <v>0.9969845637498858</v>
+      </c>
+      <c r="L22">
+        <v>1.003334811808597</v>
+      </c>
+      <c r="M22">
+        <v>0.999184013083386</v>
+      </c>
+      <c r="N22">
+        <v>0.999184013083386</v>
+      </c>
+      <c r="O22">
+        <v>0.9984398828592426</v>
+      </c>
+      <c r="P22">
+        <v>0.9984508633055525</v>
+      </c>
+      <c r="Q22">
+        <v>0.9984508633055525</v>
+      </c>
+      <c r="R22">
+        <v>0.9980842884166359</v>
+      </c>
+      <c r="S22">
+        <v>0.9980842884166359</v>
+      </c>
+      <c r="T22">
+        <v>1.000199122196304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.989376662585399</v>
+      </c>
+      <c r="D23">
+        <v>1.011207167481824</v>
+      </c>
+      <c r="E23">
         <v>0.9844770699603106</v>
       </c>
-      <c r="D19">
+      <c r="F23">
         <v>0.989376662585399</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.023427880688184</v>
+      </c>
+      <c r="H23">
+        <v>0.9933307393786437</v>
+      </c>
+      <c r="I23">
+        <v>0.9844770699603106</v>
+      </c>
+      <c r="J23">
+        <v>1.003358084575801</v>
+      </c>
+      <c r="K23">
+        <v>0.9844770699603106</v>
+      </c>
+      <c r="L23">
         <v>1.011207167481824</v>
       </c>
-      <c r="F19">
-        <v>0.9844770699603106</v>
-      </c>
-      <c r="G19">
-        <v>1.023427880688184</v>
-      </c>
-      <c r="H19">
-        <v>0.9933307393786437</v>
-      </c>
-      <c r="I19">
-        <v>1.003358084575801</v>
-      </c>
-      <c r="J19">
-        <v>0.989376662585399</v>
-      </c>
-      <c r="K19">
-        <v>0.9844770699603106</v>
-      </c>
-      <c r="L19">
-        <v>1.011207167481824</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.000291915033612</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.000291915033612</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9979715231486225</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9950203000091781</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9950203000091781</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9923844924969611</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9923844924969611</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.000862934111694</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW20.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9771689462865695</v>
+        <v>0.830883265982709</v>
       </c>
       <c r="D3">
-        <v>1.002750042853877</v>
+        <v>1.067349177817004</v>
       </c>
       <c r="E3">
-        <v>1.011270260820502</v>
+        <v>0.9973786256700308</v>
       </c>
       <c r="F3">
-        <v>0.9771689462865695</v>
+        <v>0.830883265982709</v>
       </c>
       <c r="G3">
-        <v>1.005567019423683</v>
+        <v>1.196132099070604</v>
       </c>
       <c r="H3">
-        <v>0.9892505643275699</v>
+        <v>0.8899977069236307</v>
       </c>
       <c r="I3">
-        <v>1.011270260820502</v>
+        <v>0.9973786256700308</v>
       </c>
       <c r="J3">
-        <v>1.005213652666608</v>
+        <v>1.046816257608068</v>
       </c>
       <c r="K3">
-        <v>1.011270260820502</v>
+        <v>0.9973786256700308</v>
       </c>
       <c r="L3">
-        <v>1.002750042853877</v>
+        <v>1.067349177817004</v>
       </c>
       <c r="M3">
-        <v>0.989959494570223</v>
+        <v>0.9491162218998563</v>
       </c>
       <c r="N3">
-        <v>0.989959494570223</v>
+        <v>0.9491162218998563</v>
       </c>
       <c r="O3">
-        <v>0.9897231844893386</v>
+        <v>0.9294100502411146</v>
       </c>
       <c r="P3">
-        <v>0.9970630833203161</v>
+        <v>0.9652036898232478</v>
       </c>
       <c r="Q3">
-        <v>0.9970630833203162</v>
+        <v>0.9652036898232478</v>
       </c>
       <c r="R3">
-        <v>1.000614877695363</v>
+        <v>0.9732474237849436</v>
       </c>
       <c r="S3">
-        <v>1.000614877695363</v>
+        <v>0.9732474237849436</v>
       </c>
       <c r="T3">
-        <v>0.9985367477298014</v>
+        <v>1.004759522178674</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9558718183080707</v>
+        <v>0.8485152553805471</v>
       </c>
       <c r="D4">
-        <v>1.00518049189032</v>
+        <v>1.06212178200988</v>
       </c>
       <c r="E4">
-        <v>1.022080516986999</v>
+        <v>0.9942368796226208</v>
       </c>
       <c r="F4">
-        <v>0.9558718183080707</v>
+        <v>0.8485152553805471</v>
       </c>
       <c r="G4">
-        <v>1.010511115276987</v>
+        <v>1.181321834020681</v>
       </c>
       <c r="H4">
-        <v>0.9792312084819303</v>
+        <v>0.900449614768918</v>
       </c>
       <c r="I4">
-        <v>1.022080516986999</v>
+        <v>0.9942368796226208</v>
       </c>
       <c r="J4">
-        <v>1.010064541849659</v>
+        <v>1.042224456688404</v>
       </c>
       <c r="K4">
-        <v>1.022080516986999</v>
+        <v>0.9942368796226208</v>
       </c>
       <c r="L4">
-        <v>1.00518049189032</v>
+        <v>1.06212178200988</v>
       </c>
       <c r="M4">
-        <v>0.9805261550991955</v>
+        <v>0.9553185186952133</v>
       </c>
       <c r="N4">
-        <v>0.9805261550991955</v>
+        <v>0.9553185186952133</v>
       </c>
       <c r="O4">
-        <v>0.9800945062267737</v>
+        <v>0.9370288840531149</v>
       </c>
       <c r="P4">
-        <v>0.9943776090617966</v>
+        <v>0.9682913056710158</v>
       </c>
       <c r="Q4">
-        <v>0.9943776090617966</v>
+        <v>0.9682913056710157</v>
       </c>
       <c r="R4">
-        <v>1.001303336043097</v>
+        <v>0.974777699158917</v>
       </c>
       <c r="S4">
-        <v>1.001303336043097</v>
+        <v>0.974777699158917</v>
       </c>
       <c r="T4">
-        <v>0.997156615465661</v>
+        <v>1.004811637081842</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9163837054888958</v>
+        <v>0.7976681100431272</v>
       </c>
       <c r="D5">
-        <v>1.010544962895993</v>
+        <v>1.077259380377358</v>
       </c>
       <c r="E5">
-        <v>1.040499617253213</v>
+        <v>1.003226727061995</v>
       </c>
       <c r="F5">
-        <v>0.9163837054888958</v>
+        <v>0.7976681100431272</v>
       </c>
       <c r="G5">
-        <v>1.021984773058624</v>
+        <v>1.224409197951483</v>
       </c>
       <c r="H5">
-        <v>0.9602605921789186</v>
+        <v>0.8701981801617255</v>
       </c>
       <c r="I5">
-        <v>1.040499617253213</v>
+        <v>1.003226727061995</v>
       </c>
       <c r="J5">
-        <v>1.019193715702309</v>
+        <v>1.055487088355797</v>
       </c>
       <c r="K5">
-        <v>1.040499617253213</v>
+        <v>1.003226727061995</v>
       </c>
       <c r="L5">
-        <v>1.010544962895993</v>
+        <v>1.077259380377358</v>
       </c>
       <c r="M5">
-        <v>0.9634643341924445</v>
+        <v>0.9374637452102428</v>
       </c>
       <c r="N5">
-        <v>0.9634643341924445</v>
+        <v>0.9374637452102428</v>
       </c>
       <c r="O5">
-        <v>0.9623964201879359</v>
+        <v>0.9150418901940703</v>
       </c>
       <c r="P5">
-        <v>0.9891427618793672</v>
+        <v>0.9593847391608268</v>
       </c>
       <c r="Q5">
-        <v>0.9891427618793672</v>
+        <v>0.9593847391608268</v>
       </c>
       <c r="R5">
-        <v>1.001981975722829</v>
+        <v>0.9703452361361189</v>
       </c>
       <c r="S5">
-        <v>1.001981975722829</v>
+        <v>0.9703452361361189</v>
       </c>
       <c r="T5">
-        <v>0.9948112277629922</v>
+        <v>1.004708113991914</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8777910932755404</v>
+        <v>0.7669762036704544</v>
       </c>
       <c r="D6">
-        <v>1.015906075657626</v>
+        <v>1.086492057045454</v>
       </c>
       <c r="E6">
-        <v>1.058490550320696</v>
+        <v>1.008546264659091</v>
       </c>
       <c r="F6">
-        <v>0.8777910932755404</v>
+        <v>0.7669762036704544</v>
       </c>
       <c r="G6">
-        <v>1.033011975974349</v>
+        <v>1.250990748806818</v>
       </c>
       <c r="H6">
-        <v>0.94168304463931</v>
+        <v>0.8517706148863641</v>
       </c>
       <c r="I6">
-        <v>1.058490550320696</v>
+        <v>1.008546264659091</v>
       </c>
       <c r="J6">
-        <v>1.028150552694659</v>
+        <v>1.063524149204546</v>
       </c>
       <c r="K6">
-        <v>1.058490550320696</v>
+        <v>1.008546264659091</v>
       </c>
       <c r="L6">
-        <v>1.015906075657626</v>
+        <v>1.086492057045454</v>
       </c>
       <c r="M6">
-        <v>0.9468485844665834</v>
+        <v>0.9267341303579544</v>
       </c>
       <c r="N6">
-        <v>0.9468485844665834</v>
+        <v>0.9267341303579544</v>
       </c>
       <c r="O6">
-        <v>0.9451267378574922</v>
+        <v>0.9017462918674243</v>
       </c>
       <c r="P6">
-        <v>0.9840625730846208</v>
+        <v>0.9540048417916666</v>
       </c>
       <c r="Q6">
-        <v>0.9840625730846208</v>
+        <v>0.9540048417916666</v>
       </c>
       <c r="R6">
-        <v>1.002669567393639</v>
+        <v>0.9676401975085227</v>
       </c>
       <c r="S6">
-        <v>1.002669567393639</v>
+        <v>0.9676401975085227</v>
       </c>
       <c r="T6">
-        <v>0.9925055487603633</v>
+        <v>1.004716673045455</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.998946366699789</v>
+        <v>0.4134477382320235</v>
       </c>
       <c r="D7">
-        <v>1.000465791535869</v>
+        <v>1.039127294094435</v>
       </c>
       <c r="E7">
-        <v>0.9999174981544493</v>
+        <v>1.364391888070517</v>
       </c>
       <c r="F7">
-        <v>0.998946366699789</v>
+        <v>0.4134477382320235</v>
       </c>
       <c r="G7">
-        <v>1.001432436976523</v>
+        <v>1.045551510176089</v>
       </c>
       <c r="H7">
-        <v>0.9992594563126496</v>
+        <v>0.7299774463725844</v>
       </c>
       <c r="I7">
-        <v>0.9999174981544493</v>
+        <v>1.364391888070517</v>
       </c>
       <c r="J7">
-        <v>1.000303370651129</v>
+        <v>1.133389468787302</v>
       </c>
       <c r="K7">
-        <v>0.9999174981544493</v>
+        <v>1.364391888070517</v>
       </c>
       <c r="L7">
-        <v>1.000465791535869</v>
+        <v>1.039127294094435</v>
       </c>
       <c r="M7">
-        <v>0.9997060791178289</v>
+        <v>0.7262875161632293</v>
       </c>
       <c r="N7">
-        <v>0.9997060791178289</v>
+        <v>0.7262875161632293</v>
       </c>
       <c r="O7">
-        <v>0.9995572048494358</v>
+        <v>0.7275174928996809</v>
       </c>
       <c r="P7">
-        <v>0.9997765521300357</v>
+        <v>0.9389889734656588</v>
       </c>
       <c r="Q7">
-        <v>0.9997765521300357</v>
+        <v>0.9389889734656588</v>
       </c>
       <c r="R7">
-        <v>0.9998117886361391</v>
+        <v>1.045339702116873</v>
       </c>
       <c r="S7">
-        <v>0.9998117886361391</v>
+        <v>1.045339702116873</v>
       </c>
       <c r="T7">
-        <v>1.000054153388401</v>
+        <v>0.9543142242888253</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9970432092724693</v>
+        <v>0.4122151533541595</v>
       </c>
       <c r="D8">
-        <v>1.001127648254435</v>
+        <v>1.040257759892973</v>
       </c>
       <c r="E8">
-        <v>1.000105370039895</v>
+        <v>1.363283686408072</v>
       </c>
       <c r="F8">
-        <v>0.9970432092724693</v>
+        <v>0.4122151533541595</v>
       </c>
       <c r="G8">
-        <v>1.003458333065472</v>
+        <v>1.049648567953301</v>
       </c>
       <c r="H8">
-        <v>0.9980231408363287</v>
+        <v>0.7285850236334458</v>
       </c>
       <c r="I8">
-        <v>1.000105370039895</v>
+        <v>1.363283686408072</v>
       </c>
       <c r="J8">
-        <v>1.000823550494078</v>
+        <v>1.133853105714676</v>
       </c>
       <c r="K8">
-        <v>1.000105370039895</v>
+        <v>1.363283686408072</v>
       </c>
       <c r="L8">
-        <v>1.001127648254435</v>
+        <v>1.040257759892973</v>
       </c>
       <c r="M8">
-        <v>0.9990854287634521</v>
+        <v>0.7262364566235664</v>
       </c>
       <c r="N8">
-        <v>0.9990854287634521</v>
+        <v>0.7262364566235664</v>
       </c>
       <c r="O8">
-        <v>0.9987313327877443</v>
+        <v>0.7270193122935261</v>
       </c>
       <c r="P8">
-        <v>0.9994254091889331</v>
+        <v>0.9385855332184017</v>
       </c>
       <c r="Q8">
-        <v>0.9994254091889331</v>
+        <v>0.9385855332184017</v>
       </c>
       <c r="R8">
-        <v>0.9995953994016736</v>
+        <v>1.044760071515819</v>
       </c>
       <c r="S8">
-        <v>0.9995953994016736</v>
+        <v>1.044760071515819</v>
       </c>
       <c r="T8">
-        <v>1.000096875327113</v>
+        <v>0.9546405494927713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9956700557465415</v>
+        <v>0.4114369238243819</v>
       </c>
       <c r="D9">
-        <v>1.001327291982254</v>
+        <v>1.041797741028612</v>
       </c>
       <c r="E9">
-        <v>1.000775848417098</v>
+        <v>1.360892739180937</v>
       </c>
       <c r="F9">
-        <v>0.9956700557465415</v>
+        <v>0.4114369238243819</v>
       </c>
       <c r="G9">
-        <v>1.004192643581851</v>
+        <v>1.054476988356253</v>
       </c>
       <c r="H9">
-        <v>0.9972516889690823</v>
+        <v>0.7274189350896926</v>
       </c>
       <c r="I9">
-        <v>1.000775848417098</v>
+        <v>1.360892739180937</v>
       </c>
       <c r="J9">
-        <v>1.001154522478958</v>
+        <v>1.134236737434739</v>
       </c>
       <c r="K9">
-        <v>1.000775848417098</v>
+        <v>1.360892739180937</v>
       </c>
       <c r="L9">
-        <v>1.001327291982254</v>
+        <v>1.041797741028612</v>
       </c>
       <c r="M9">
-        <v>0.9984986738643979</v>
+        <v>0.7266173324264971</v>
       </c>
       <c r="N9">
-        <v>0.9984986738643979</v>
+        <v>0.7266173324264971</v>
       </c>
       <c r="O9">
-        <v>0.9980830122326262</v>
+        <v>0.7268845333142289</v>
       </c>
       <c r="P9">
-        <v>0.9992577320486314</v>
+        <v>0.9380424680113103</v>
       </c>
       <c r="Q9">
-        <v>0.9992577320486314</v>
+        <v>0.9380424680113103</v>
       </c>
       <c r="R9">
-        <v>0.9996372611407481</v>
+        <v>1.043755035803717</v>
       </c>
       <c r="S9">
-        <v>0.9996372611407481</v>
+        <v>1.043755035803717</v>
       </c>
       <c r="T9">
-        <v>1.000062008529298</v>
+        <v>0.9550433441524359</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9909824493107767</v>
+        <v>0.4085846213440497</v>
       </c>
       <c r="D10">
-        <v>1.003127921192825</v>
+        <v>1.042541292741155</v>
       </c>
       <c r="E10">
-        <v>1.000915342882885</v>
+        <v>1.362114075964822</v>
       </c>
       <c r="F10">
-        <v>0.9909824493107767</v>
+        <v>0.4085846213440497</v>
       </c>
       <c r="G10">
-        <v>1.009869014499187</v>
+        <v>1.059236607984027</v>
       </c>
       <c r="H10">
-        <v>0.9940801794604058</v>
+        <v>0.7248507264370625</v>
       </c>
       <c r="I10">
-        <v>1.000915342882885</v>
+        <v>1.362114075964822</v>
       </c>
       <c r="J10">
-        <v>1.002458749692057</v>
+        <v>1.135045072795082</v>
       </c>
       <c r="K10">
-        <v>1.000915342882885</v>
+        <v>1.362114075964822</v>
       </c>
       <c r="L10">
-        <v>1.003127921192825</v>
+        <v>1.042541292741155</v>
       </c>
       <c r="M10">
-        <v>0.997055185251801</v>
+        <v>0.7255629570426025</v>
       </c>
       <c r="N10">
-        <v>0.997055185251801</v>
+        <v>0.7255629570426025</v>
       </c>
       <c r="O10">
-        <v>0.9960635166546693</v>
+        <v>0.7253255468407559</v>
       </c>
       <c r="P10">
-        <v>0.9983419044621623</v>
+        <v>0.937746663350009</v>
       </c>
       <c r="Q10">
-        <v>0.9983419044621623</v>
+        <v>0.937746663350009</v>
       </c>
       <c r="R10">
-        <v>0.9989852640673429</v>
+        <v>1.043838516503712</v>
       </c>
       <c r="S10">
-        <v>0.9989852640673429</v>
+        <v>1.043838516503712</v>
       </c>
       <c r="T10">
-        <v>1.000238942839689</v>
+        <v>0.9553953995443664</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9844616144169972</v>
+        <v>0.9734000954026273</v>
       </c>
       <c r="D11">
-        <v>1.00456182741146</v>
+        <v>1.002751750566703</v>
       </c>
       <c r="E11">
-        <v>1.003309241633728</v>
+        <v>1.014216113628993</v>
       </c>
       <c r="F11">
-        <v>0.9844616144169972</v>
+        <v>0.9734000954026273</v>
       </c>
       <c r="G11">
-        <v>1.01460299743839</v>
+        <v>1.005711708140419</v>
       </c>
       <c r="H11">
-        <v>0.9900961801399841</v>
+        <v>0.9873926512717989</v>
       </c>
       <c r="I11">
-        <v>1.003309241633728</v>
+        <v>1.014216113628993</v>
       </c>
       <c r="J11">
-        <v>1.004156043687364</v>
+        <v>1.006084590794033</v>
       </c>
       <c r="K11">
-        <v>1.003309241633728</v>
+        <v>1.014216113628993</v>
       </c>
       <c r="L11">
-        <v>1.00456182741146</v>
+        <v>1.002751750566703</v>
       </c>
       <c r="M11">
-        <v>0.9945117209142287</v>
+        <v>0.9880759229846652</v>
       </c>
       <c r="N11">
-        <v>0.9945117209142287</v>
+        <v>0.9880759229846652</v>
       </c>
       <c r="O11">
-        <v>0.9930398739894805</v>
+        <v>0.9878481657470431</v>
       </c>
       <c r="P11">
-        <v>0.9974442278207283</v>
+        <v>0.9967893198661079</v>
       </c>
       <c r="Q11">
-        <v>0.9974442278207283</v>
+        <v>0.9967893198661079</v>
       </c>
       <c r="R11">
-        <v>0.9989104812739782</v>
+        <v>1.001146018306829</v>
       </c>
       <c r="S11">
-        <v>0.9989104812739782</v>
+        <v>1.001146018306829</v>
       </c>
       <c r="T11">
-        <v>1.000197984121321</v>
+        <v>0.9982594849674292</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.101626299898492</v>
+        <v>0.9858454124017689</v>
       </c>
       <c r="D12">
-        <v>0.9489364297427153</v>
+        <v>1.001617210860863</v>
       </c>
       <c r="E12">
-        <v>0.9922572471170032</v>
+        <v>1.007167817648684</v>
       </c>
       <c r="F12">
-        <v>1.101626299898492</v>
+        <v>0.9858454124017689</v>
       </c>
       <c r="G12">
-        <v>0.7767753123789009</v>
+        <v>1.003021087529482</v>
       </c>
       <c r="H12">
-        <v>1.110748655632942</v>
+        <v>0.9934090188897673</v>
       </c>
       <c r="I12">
-        <v>0.9922572471170032</v>
+        <v>1.007167817648684</v>
       </c>
       <c r="J12">
-        <v>0.9616991050101645</v>
+        <v>1.003224079573825</v>
       </c>
       <c r="K12">
-        <v>0.9922572471170032</v>
+        <v>1.007167817648684</v>
       </c>
       <c r="L12">
-        <v>0.9489364297427153</v>
+        <v>1.001617210860863</v>
       </c>
       <c r="M12">
-        <v>1.025281364820604</v>
+        <v>0.9937313116313158</v>
       </c>
       <c r="N12">
-        <v>1.025281364820604</v>
+        <v>0.9937313116313158</v>
       </c>
       <c r="O12">
-        <v>1.05377046175805</v>
+        <v>0.9936238807174663</v>
       </c>
       <c r="P12">
-        <v>1.01427332558607</v>
+        <v>0.9982101469704384</v>
       </c>
       <c r="Q12">
-        <v>1.014273325586071</v>
+        <v>0.9982101469704384</v>
       </c>
       <c r="R12">
-        <v>1.008769305968804</v>
+        <v>1.00044956464</v>
       </c>
       <c r="S12">
-        <v>1.008769305968804</v>
+        <v>1.00044956464</v>
       </c>
       <c r="T12">
-        <v>0.9820071749633698</v>
+        <v>0.9990474378173984</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.132883522405263</v>
+        <v>0.9519625972842105</v>
       </c>
       <c r="D13">
-        <v>0.9720640083857234</v>
+        <v>1.005270638922456</v>
       </c>
       <c r="E13">
-        <v>0.9921721339540672</v>
+        <v>1.02455140038144</v>
       </c>
       <c r="F13">
-        <v>1.132883522405263</v>
+        <v>0.9519625972842105</v>
       </c>
       <c r="G13">
-        <v>1.017604791367014</v>
+        <v>1.008774925115946</v>
       </c>
       <c r="H13">
-        <v>1.022855579633406</v>
+        <v>0.9780730210593113</v>
       </c>
       <c r="I13">
-        <v>0.9921721339540672</v>
+        <v>1.02455140038144</v>
       </c>
       <c r="J13">
-        <v>0.9778762920013906</v>
+        <v>1.010860246689449</v>
       </c>
       <c r="K13">
-        <v>0.9921721339540672</v>
+        <v>1.02455140038144</v>
       </c>
       <c r="L13">
-        <v>0.9720640083857234</v>
+        <v>1.005270638922456</v>
       </c>
       <c r="M13">
-        <v>1.052473765395493</v>
+        <v>0.9786166181033331</v>
       </c>
       <c r="N13">
-        <v>1.052473765395493</v>
+        <v>0.9786166181033331</v>
       </c>
       <c r="O13">
-        <v>1.042601036808131</v>
+        <v>0.9784354190886592</v>
       </c>
       <c r="P13">
-        <v>1.032373221581685</v>
+        <v>0.9939282121960354</v>
       </c>
       <c r="Q13">
-        <v>1.032373221581685</v>
+        <v>0.9939282121960354</v>
       </c>
       <c r="R13">
-        <v>1.02232294967478</v>
+        <v>1.001584009242387</v>
       </c>
       <c r="S13">
-        <v>1.02232294967478</v>
+        <v>1.001584009242387</v>
       </c>
       <c r="T13">
-        <v>1.019242721291144</v>
+        <v>0.9965821382421356</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.549115821502245</v>
+        <v>0.936944167201989</v>
       </c>
       <c r="D14">
-        <v>0.8585598533017926</v>
+        <v>1.007969832730986</v>
       </c>
       <c r="E14">
-        <v>0.9080126208316811</v>
+        <v>1.030443496650002</v>
       </c>
       <c r="F14">
-        <v>1.549115821502245</v>
+        <v>0.936944167201989</v>
       </c>
       <c r="G14">
-        <v>0.7087614410486681</v>
+        <v>1.01674838291792</v>
       </c>
       <c r="H14">
-        <v>1.256056155235608</v>
+        <v>0.9700278181270198</v>
       </c>
       <c r="I14">
-        <v>0.9080126208316811</v>
+        <v>1.030443496650002</v>
       </c>
       <c r="J14">
-        <v>0.8728869136595593</v>
+        <v>1.014471688777298</v>
       </c>
       <c r="K14">
-        <v>0.9080126208316811</v>
+        <v>1.030443496650002</v>
       </c>
       <c r="L14">
-        <v>0.8585598533017926</v>
+        <v>1.007969832730986</v>
       </c>
       <c r="M14">
-        <v>1.203837837402019</v>
+        <v>0.9724569999664876</v>
       </c>
       <c r="N14">
-        <v>1.203837837402019</v>
+        <v>0.9724569999664876</v>
       </c>
       <c r="O14">
-        <v>1.221243943346549</v>
+        <v>0.9716472726866651</v>
       </c>
       <c r="P14">
-        <v>1.105229431878573</v>
+        <v>0.9917858321943259</v>
       </c>
       <c r="Q14">
-        <v>1.105229431878573</v>
+        <v>0.9917858321943259</v>
       </c>
       <c r="R14">
-        <v>1.05592522911685</v>
+        <v>1.001450248308245</v>
       </c>
       <c r="S14">
-        <v>1.05592522911685</v>
+        <v>1.001450248308245</v>
       </c>
       <c r="T14">
-        <v>1.025565467596592</v>
+        <v>0.9961008977342026</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.042385046805335</v>
+        <v>0.9771689462865695</v>
       </c>
       <c r="D15">
-        <v>0.9969324457096592</v>
+        <v>1.002750042853877</v>
       </c>
       <c r="E15">
-        <v>0.9249399639844021</v>
+        <v>1.011270260820502</v>
       </c>
       <c r="F15">
-        <v>1.042385046805335</v>
+        <v>0.9771689462865695</v>
       </c>
       <c r="G15">
-        <v>0.8961665861003301</v>
+        <v>1.005567019423683</v>
       </c>
       <c r="H15">
-        <v>1.079648388150934</v>
+        <v>0.9892505643275699</v>
       </c>
       <c r="I15">
-        <v>0.9249399639844021</v>
+        <v>1.011270260820502</v>
       </c>
       <c r="J15">
-        <v>0.9759547582133786</v>
+        <v>1.005213652666608</v>
       </c>
       <c r="K15">
-        <v>0.9249399639844021</v>
+        <v>1.011270260820502</v>
       </c>
       <c r="L15">
-        <v>0.9969324457096592</v>
+        <v>1.002750042853877</v>
       </c>
       <c r="M15">
-        <v>1.019658746257497</v>
+        <v>0.989959494570223</v>
       </c>
       <c r="N15">
-        <v>1.019658746257497</v>
+        <v>0.989959494570223</v>
       </c>
       <c r="O15">
-        <v>1.039655293555309</v>
+        <v>0.9897231844893386</v>
       </c>
       <c r="P15">
-        <v>0.988085818833132</v>
+        <v>0.9970630833203161</v>
       </c>
       <c r="Q15">
-        <v>0.988085818833132</v>
+        <v>0.9970630833203162</v>
       </c>
       <c r="R15">
-        <v>0.9722993551209496</v>
+        <v>1.000614877695363</v>
       </c>
       <c r="S15">
-        <v>0.9722993551209496</v>
+        <v>1.000614877695363</v>
       </c>
       <c r="T15">
-        <v>0.9860045314940065</v>
+        <v>0.9985367477298014</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.5650994537698784</v>
+        <v>0.9558718183080707</v>
       </c>
       <c r="D16">
-        <v>1.058589072698213</v>
+        <v>1.00518049189032</v>
       </c>
       <c r="E16">
-        <v>1.203122786935792</v>
+        <v>1.022080516986999</v>
       </c>
       <c r="F16">
-        <v>0.5650994537698784</v>
+        <v>0.9558718183080707</v>
       </c>
       <c r="G16">
-        <v>1.12727908814874</v>
+        <v>1.010511115276987</v>
       </c>
       <c r="H16">
-        <v>0.7910595469393069</v>
+        <v>0.9792312084819303</v>
       </c>
       <c r="I16">
-        <v>1.203122786935792</v>
+        <v>1.022080516986999</v>
       </c>
       <c r="J16">
-        <v>1.100445742085453</v>
+        <v>1.010064541849659</v>
       </c>
       <c r="K16">
-        <v>1.203122786935792</v>
+        <v>1.022080516986999</v>
       </c>
       <c r="L16">
-        <v>1.058589072698213</v>
+        <v>1.00518049189032</v>
       </c>
       <c r="M16">
-        <v>0.8118442632340459</v>
+        <v>0.9805261550991955</v>
       </c>
       <c r="N16">
-        <v>0.8118442632340459</v>
+        <v>0.9805261550991955</v>
       </c>
       <c r="O16">
-        <v>0.8049160244691329</v>
+        <v>0.9800945062267737</v>
       </c>
       <c r="P16">
-        <v>0.9422704378012945</v>
+        <v>0.9943776090617966</v>
       </c>
       <c r="Q16">
-        <v>0.9422704378012945</v>
+        <v>0.9943776090617966</v>
       </c>
       <c r="R16">
-        <v>1.007483525084919</v>
+        <v>1.001303336043097</v>
       </c>
       <c r="S16">
-        <v>1.007483525084919</v>
+        <v>1.001303336043097</v>
       </c>
       <c r="T16">
-        <v>0.974265948429564</v>
+        <v>0.997156615465661</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.6643206483116052</v>
+        <v>0.9163837054888958</v>
       </c>
       <c r="D17">
-        <v>1.058270036562936</v>
+        <v>1.010544962895993</v>
       </c>
       <c r="E17">
-        <v>1.132840576304303</v>
+        <v>1.040499617253213</v>
       </c>
       <c r="F17">
-        <v>0.6643206483116052</v>
+        <v>0.9163837054888958</v>
       </c>
       <c r="G17">
-        <v>1.14113478062869</v>
+        <v>1.021984773058624</v>
       </c>
       <c r="H17">
-        <v>0.8303463523444556</v>
+        <v>0.9602605921789186</v>
       </c>
       <c r="I17">
-        <v>1.132840576304303</v>
+        <v>1.040499617253213</v>
       </c>
       <c r="J17">
-        <v>1.079793233163821</v>
+        <v>1.019193715702309</v>
       </c>
       <c r="K17">
-        <v>1.132840576304303</v>
+        <v>1.040499617253213</v>
       </c>
       <c r="L17">
-        <v>1.058270036562936</v>
+        <v>1.010544962895993</v>
       </c>
       <c r="M17">
-        <v>0.8612953424372707</v>
+        <v>0.9634643341924445</v>
       </c>
       <c r="N17">
-        <v>0.8612953424372707</v>
+        <v>0.9634643341924445</v>
       </c>
       <c r="O17">
-        <v>0.8509790124063322</v>
+        <v>0.9623964201879359</v>
       </c>
       <c r="P17">
-        <v>0.9518104203929481</v>
+        <v>0.9891427618793672</v>
       </c>
       <c r="Q17">
-        <v>0.9518104203929481</v>
+        <v>0.9891427618793672</v>
       </c>
       <c r="R17">
-        <v>0.9970679593707867</v>
+        <v>1.001981975722829</v>
       </c>
       <c r="S17">
-        <v>0.9970679593707867</v>
+        <v>1.001981975722829</v>
       </c>
       <c r="T17">
-        <v>0.9844509378859684</v>
+        <v>0.9948112277629922</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8626631332337098</v>
+        <v>0.8777910932755404</v>
       </c>
       <c r="D18">
-        <v>1.056977340460227</v>
+        <v>1.015906075657626</v>
       </c>
       <c r="E18">
-        <v>0.9936106352736677</v>
+        <v>1.058490550320696</v>
       </c>
       <c r="F18">
-        <v>0.8626631332337098</v>
+        <v>0.8777910932755404</v>
       </c>
       <c r="G18">
-        <v>1.166862459218242</v>
+        <v>1.033011975974349</v>
       </c>
       <c r="H18">
-        <v>0.9092142005876882</v>
+        <v>0.94168304463931</v>
       </c>
       <c r="I18">
-        <v>0.9936106352736677</v>
+        <v>1.058490550320696</v>
       </c>
       <c r="J18">
-        <v>1.03841136121303</v>
+        <v>1.028150552694659</v>
       </c>
       <c r="K18">
-        <v>0.9936106352736677</v>
+        <v>1.058490550320696</v>
       </c>
       <c r="L18">
-        <v>1.056977340460227</v>
+        <v>1.015906075657626</v>
       </c>
       <c r="M18">
-        <v>0.9598202368469684</v>
+        <v>0.9468485844665834</v>
       </c>
       <c r="N18">
-        <v>0.9598202368469684</v>
+        <v>0.9468485844665834</v>
       </c>
       <c r="O18">
-        <v>0.942951558093875</v>
+        <v>0.9451267378574922</v>
       </c>
       <c r="P18">
-        <v>0.9710837029892015</v>
+        <v>0.9840625730846208</v>
       </c>
       <c r="Q18">
-        <v>0.9710837029892015</v>
+        <v>0.9840625730846208</v>
       </c>
       <c r="R18">
-        <v>0.9767154360603181</v>
+        <v>1.002669567393639</v>
       </c>
       <c r="S18">
-        <v>0.9767154360603181</v>
+        <v>1.002669567393639</v>
       </c>
       <c r="T18">
-        <v>1.004623188331094</v>
+        <v>0.9925055487603633</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8585668678351542</v>
+        <v>0.998946366699789</v>
       </c>
       <c r="D19">
-        <v>1.068228221378537</v>
+        <v>1.000465791535869</v>
       </c>
       <c r="E19">
-        <v>0.9760374462495258</v>
+        <v>0.9999174981544493</v>
       </c>
       <c r="F19">
-        <v>0.8585668678351542</v>
+        <v>0.998946366699789</v>
       </c>
       <c r="G19">
-        <v>1.201618243195922</v>
+        <v>1.001432436976523</v>
       </c>
       <c r="H19">
-        <v>0.9006826653629786</v>
+        <v>0.9992594563126496</v>
       </c>
       <c r="I19">
-        <v>0.9760374462495258</v>
+        <v>0.9999174981544493</v>
       </c>
       <c r="J19">
-        <v>1.041223683775198</v>
+        <v>1.000303370651129</v>
       </c>
       <c r="K19">
-        <v>0.9760374462495258</v>
+        <v>0.9999174981544493</v>
       </c>
       <c r="L19">
-        <v>1.068228221378537</v>
+        <v>1.000465791535869</v>
       </c>
       <c r="M19">
-        <v>0.9633975446068459</v>
+        <v>0.9997060791178289</v>
       </c>
       <c r="N19">
-        <v>0.9633975446068459</v>
+        <v>0.9997060791178289</v>
       </c>
       <c r="O19">
-        <v>0.9424925848588902</v>
+        <v>0.9995572048494358</v>
       </c>
       <c r="P19">
-        <v>0.967610845154406</v>
+        <v>0.9997765521300357</v>
       </c>
       <c r="Q19">
-        <v>0.967610845154406</v>
+        <v>0.9997765521300357</v>
       </c>
       <c r="R19">
-        <v>0.969717495428186</v>
+        <v>0.9998117886361391</v>
       </c>
       <c r="S19">
-        <v>0.969717495428186</v>
+        <v>0.9998117886361391</v>
       </c>
       <c r="T19">
-        <v>1.00772618796622</v>
+        <v>1.000054153388401</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000777859250564</v>
+        <v>0.9970432092724693</v>
       </c>
       <c r="D20">
-        <v>1.000970396618215</v>
+        <v>1.001127648254435</v>
       </c>
       <c r="E20">
-        <v>0.9974529059435068</v>
+        <v>1.000105370039895</v>
       </c>
       <c r="F20">
-        <v>1.000777859250564</v>
+        <v>0.9970432092724693</v>
       </c>
       <c r="G20">
-        <v>1.002351910355692</v>
+        <v>1.003458333065472</v>
       </c>
       <c r="H20">
-        <v>1.000072089021915</v>
+        <v>0.9980231408363287</v>
       </c>
       <c r="I20">
-        <v>0.9974529059435068</v>
+        <v>1.000105370039895</v>
       </c>
       <c r="J20">
-        <v>0.9999376430275392</v>
+        <v>1.000823550494078</v>
       </c>
       <c r="K20">
-        <v>0.9974529059435068</v>
+        <v>1.000105370039895</v>
       </c>
       <c r="L20">
-        <v>1.000970396618215</v>
+        <v>1.001127648254435</v>
       </c>
       <c r="M20">
-        <v>1.00087412793439</v>
+        <v>0.9990854287634521</v>
       </c>
       <c r="N20">
-        <v>1.00087412793439</v>
+        <v>0.9990854287634521</v>
       </c>
       <c r="O20">
-        <v>1.000606781630231</v>
+        <v>0.9987313327877443</v>
       </c>
       <c r="P20">
-        <v>0.9997337206040954</v>
+        <v>0.9994254091889331</v>
       </c>
       <c r="Q20">
-        <v>0.9997337206040952</v>
+        <v>0.9994254091889331</v>
       </c>
       <c r="R20">
-        <v>0.9991635169389481</v>
+        <v>0.9995953994016736</v>
       </c>
       <c r="S20">
-        <v>0.9991635169389481</v>
+        <v>0.9995953994016736</v>
       </c>
       <c r="T20">
-        <v>1.000260467369572</v>
+        <v>1.000096875327113</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9974867230340878</v>
+        <v>0.9956700557465415</v>
       </c>
       <c r="D21">
-        <v>0.999335279173116</v>
+        <v>1.001327291982254</v>
       </c>
       <c r="E21">
-        <v>1.003227373974132</v>
+        <v>1.000775848417098</v>
       </c>
       <c r="F21">
-        <v>0.9974867230340878</v>
+        <v>0.9956700557465415</v>
       </c>
       <c r="G21">
-        <v>0.9987137058077364</v>
+        <v>1.004192643581851</v>
       </c>
       <c r="H21">
-        <v>0.9989709214482465</v>
+        <v>0.9972516889690823</v>
       </c>
       <c r="I21">
-        <v>1.003227373974132</v>
+        <v>1.000775848417098</v>
       </c>
       <c r="J21">
-        <v>1.000476751768108</v>
+        <v>1.001154522478958</v>
       </c>
       <c r="K21">
-        <v>1.003227373974132</v>
+        <v>1.000775848417098</v>
       </c>
       <c r="L21">
-        <v>0.999335279173116</v>
+        <v>1.001327291982254</v>
       </c>
       <c r="M21">
-        <v>0.9984110011036019</v>
+        <v>0.9984986738643979</v>
       </c>
       <c r="N21">
-        <v>0.9984110011036019</v>
+        <v>0.9984986738643979</v>
       </c>
       <c r="O21">
-        <v>0.9985976412184835</v>
+        <v>0.9980830122326262</v>
       </c>
       <c r="P21">
-        <v>1.000016458727112</v>
+        <v>0.9992577320486314</v>
       </c>
       <c r="Q21">
-        <v>1.000016458727112</v>
+        <v>0.9992577320486314</v>
       </c>
       <c r="R21">
-        <v>1.000819187538867</v>
+        <v>0.9996372611407481</v>
       </c>
       <c r="S21">
-        <v>1.000819187538867</v>
+        <v>0.9996372611407481</v>
       </c>
       <c r="T21">
-        <v>0.9997017925342377</v>
+        <v>1.000062008529298</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9950332143581752</v>
+        <v>0.9909824493107767</v>
       </c>
       <c r="D22">
-        <v>1.003334811808597</v>
+        <v>1.003127921192825</v>
       </c>
       <c r="E22">
-        <v>0.9969845637498858</v>
+        <v>1.000915342882885</v>
       </c>
       <c r="F22">
-        <v>0.9950332143581752</v>
+        <v>0.9909824493107767</v>
       </c>
       <c r="G22">
-        <v>1.007481577145306</v>
+        <v>1.009869014499187</v>
       </c>
       <c r="H22">
-        <v>0.9969516224109556</v>
+        <v>0.9940801794604058</v>
       </c>
       <c r="I22">
-        <v>0.9969845637498858</v>
+        <v>1.000915342882885</v>
       </c>
       <c r="J22">
-        <v>1.001408943704903</v>
+        <v>1.002458749692057</v>
       </c>
       <c r="K22">
-        <v>0.9969845637498858</v>
+        <v>1.000915342882885</v>
       </c>
       <c r="L22">
-        <v>1.003334811808597</v>
+        <v>1.003127921192825</v>
       </c>
       <c r="M22">
-        <v>0.999184013083386</v>
+        <v>0.997055185251801</v>
       </c>
       <c r="N22">
-        <v>0.999184013083386</v>
+        <v>0.997055185251801</v>
       </c>
       <c r="O22">
-        <v>0.9984398828592426</v>
+        <v>0.9960635166546693</v>
       </c>
       <c r="P22">
-        <v>0.9984508633055525</v>
+        <v>0.9983419044621623</v>
       </c>
       <c r="Q22">
-        <v>0.9984508633055525</v>
+        <v>0.9983419044621623</v>
       </c>
       <c r="R22">
-        <v>0.9980842884166359</v>
+        <v>0.9989852640673429</v>
       </c>
       <c r="S22">
-        <v>0.9980842884166359</v>
+        <v>0.9989852640673429</v>
       </c>
       <c r="T22">
-        <v>1.000199122196304</v>
+        <v>1.000238942839689</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>0.9844616144169972</v>
+      </c>
+      <c r="D23">
+        <v>1.00456182741146</v>
+      </c>
+      <c r="E23">
+        <v>1.003309241633728</v>
+      </c>
+      <c r="F23">
+        <v>0.9844616144169972</v>
+      </c>
+      <c r="G23">
+        <v>1.01460299743839</v>
+      </c>
+      <c r="H23">
+        <v>0.9900961801399841</v>
+      </c>
+      <c r="I23">
+        <v>1.003309241633728</v>
+      </c>
+      <c r="J23">
+        <v>1.004156043687364</v>
+      </c>
+      <c r="K23">
+        <v>1.003309241633728</v>
+      </c>
+      <c r="L23">
+        <v>1.00456182741146</v>
+      </c>
+      <c r="M23">
+        <v>0.9945117209142287</v>
+      </c>
+      <c r="N23">
+        <v>0.9945117209142287</v>
+      </c>
+      <c r="O23">
+        <v>0.9930398739894805</v>
+      </c>
+      <c r="P23">
+        <v>0.9974442278207283</v>
+      </c>
+      <c r="Q23">
+        <v>0.9974442278207283</v>
+      </c>
+      <c r="R23">
+        <v>0.9989104812739782</v>
+      </c>
+      <c r="S23">
+        <v>0.9989104812739782</v>
+      </c>
+      <c r="T23">
+        <v>1.000197984121321</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.101626299898492</v>
+      </c>
+      <c r="D24">
+        <v>0.9489364297427153</v>
+      </c>
+      <c r="E24">
+        <v>0.9922572471170032</v>
+      </c>
+      <c r="F24">
+        <v>1.101626299898492</v>
+      </c>
+      <c r="G24">
+        <v>0.7767753123789009</v>
+      </c>
+      <c r="H24">
+        <v>1.110748655632942</v>
+      </c>
+      <c r="I24">
+        <v>0.9922572471170032</v>
+      </c>
+      <c r="J24">
+        <v>0.9616991050101645</v>
+      </c>
+      <c r="K24">
+        <v>0.9922572471170032</v>
+      </c>
+      <c r="L24">
+        <v>0.9489364297427153</v>
+      </c>
+      <c r="M24">
+        <v>1.025281364820604</v>
+      </c>
+      <c r="N24">
+        <v>1.025281364820604</v>
+      </c>
+      <c r="O24">
+        <v>1.05377046175805</v>
+      </c>
+      <c r="P24">
+        <v>1.01427332558607</v>
+      </c>
+      <c r="Q24">
+        <v>1.014273325586071</v>
+      </c>
+      <c r="R24">
+        <v>1.008769305968804</v>
+      </c>
+      <c r="S24">
+        <v>1.008769305968804</v>
+      </c>
+      <c r="T24">
+        <v>0.9820071749633698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.132883522405263</v>
+      </c>
+      <c r="D25">
+        <v>0.9720640083857234</v>
+      </c>
+      <c r="E25">
+        <v>0.9921721339540672</v>
+      </c>
+      <c r="F25">
+        <v>1.132883522405263</v>
+      </c>
+      <c r="G25">
+        <v>1.017604791367014</v>
+      </c>
+      <c r="H25">
+        <v>1.022855579633406</v>
+      </c>
+      <c r="I25">
+        <v>0.9921721339540672</v>
+      </c>
+      <c r="J25">
+        <v>0.9778762920013906</v>
+      </c>
+      <c r="K25">
+        <v>0.9921721339540672</v>
+      </c>
+      <c r="L25">
+        <v>0.9720640083857234</v>
+      </c>
+      <c r="M25">
+        <v>1.052473765395493</v>
+      </c>
+      <c r="N25">
+        <v>1.052473765395493</v>
+      </c>
+      <c r="O25">
+        <v>1.042601036808131</v>
+      </c>
+      <c r="P25">
+        <v>1.032373221581685</v>
+      </c>
+      <c r="Q25">
+        <v>1.032373221581685</v>
+      </c>
+      <c r="R25">
+        <v>1.02232294967478</v>
+      </c>
+      <c r="S25">
+        <v>1.02232294967478</v>
+      </c>
+      <c r="T25">
+        <v>1.019242721291144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.549115821502245</v>
+      </c>
+      <c r="D26">
+        <v>0.8585598533017926</v>
+      </c>
+      <c r="E26">
+        <v>0.9080126208316811</v>
+      </c>
+      <c r="F26">
+        <v>1.549115821502245</v>
+      </c>
+      <c r="G26">
+        <v>0.7087614410486681</v>
+      </c>
+      <c r="H26">
+        <v>1.256056155235608</v>
+      </c>
+      <c r="I26">
+        <v>0.9080126208316811</v>
+      </c>
+      <c r="J26">
+        <v>0.8728869136595593</v>
+      </c>
+      <c r="K26">
+        <v>0.9080126208316811</v>
+      </c>
+      <c r="L26">
+        <v>0.8585598533017926</v>
+      </c>
+      <c r="M26">
+        <v>1.203837837402019</v>
+      </c>
+      <c r="N26">
+        <v>1.203837837402019</v>
+      </c>
+      <c r="O26">
+        <v>1.221243943346549</v>
+      </c>
+      <c r="P26">
+        <v>1.105229431878573</v>
+      </c>
+      <c r="Q26">
+        <v>1.105229431878573</v>
+      </c>
+      <c r="R26">
+        <v>1.05592522911685</v>
+      </c>
+      <c r="S26">
+        <v>1.05592522911685</v>
+      </c>
+      <c r="T26">
+        <v>1.025565467596592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.042385046805335</v>
+      </c>
+      <c r="D27">
+        <v>0.9969324457096592</v>
+      </c>
+      <c r="E27">
+        <v>0.9249399639844021</v>
+      </c>
+      <c r="F27">
+        <v>1.042385046805335</v>
+      </c>
+      <c r="G27">
+        <v>0.8961665861003301</v>
+      </c>
+      <c r="H27">
+        <v>1.079648388150934</v>
+      </c>
+      <c r="I27">
+        <v>0.9249399639844021</v>
+      </c>
+      <c r="J27">
+        <v>0.9759547582133786</v>
+      </c>
+      <c r="K27">
+        <v>0.9249399639844021</v>
+      </c>
+      <c r="L27">
+        <v>0.9969324457096592</v>
+      </c>
+      <c r="M27">
+        <v>1.019658746257497</v>
+      </c>
+      <c r="N27">
+        <v>1.019658746257497</v>
+      </c>
+      <c r="O27">
+        <v>1.039655293555309</v>
+      </c>
+      <c r="P27">
+        <v>0.988085818833132</v>
+      </c>
+      <c r="Q27">
+        <v>0.988085818833132</v>
+      </c>
+      <c r="R27">
+        <v>0.9722993551209496</v>
+      </c>
+      <c r="S27">
+        <v>0.9722993551209496</v>
+      </c>
+      <c r="T27">
+        <v>0.9860045314940065</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.5650994537698784</v>
+      </c>
+      <c r="D28">
+        <v>1.058589072698213</v>
+      </c>
+      <c r="E28">
+        <v>1.203122786935792</v>
+      </c>
+      <c r="F28">
+        <v>0.5650994537698784</v>
+      </c>
+      <c r="G28">
+        <v>1.12727908814874</v>
+      </c>
+      <c r="H28">
+        <v>0.7910595469393069</v>
+      </c>
+      <c r="I28">
+        <v>1.203122786935792</v>
+      </c>
+      <c r="J28">
+        <v>1.100445742085453</v>
+      </c>
+      <c r="K28">
+        <v>1.203122786935792</v>
+      </c>
+      <c r="L28">
+        <v>1.058589072698213</v>
+      </c>
+      <c r="M28">
+        <v>0.8118442632340459</v>
+      </c>
+      <c r="N28">
+        <v>0.8118442632340459</v>
+      </c>
+      <c r="O28">
+        <v>0.8049160244691329</v>
+      </c>
+      <c r="P28">
+        <v>0.9422704378012945</v>
+      </c>
+      <c r="Q28">
+        <v>0.9422704378012945</v>
+      </c>
+      <c r="R28">
+        <v>1.007483525084919</v>
+      </c>
+      <c r="S28">
+        <v>1.007483525084919</v>
+      </c>
+      <c r="T28">
+        <v>0.974265948429564</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.6643206483116052</v>
+      </c>
+      <c r="D29">
+        <v>1.058270036562936</v>
+      </c>
+      <c r="E29">
+        <v>1.132840576304303</v>
+      </c>
+      <c r="F29">
+        <v>0.6643206483116052</v>
+      </c>
+      <c r="G29">
+        <v>1.14113478062869</v>
+      </c>
+      <c r="H29">
+        <v>0.8303463523444556</v>
+      </c>
+      <c r="I29">
+        <v>1.132840576304303</v>
+      </c>
+      <c r="J29">
+        <v>1.079793233163821</v>
+      </c>
+      <c r="K29">
+        <v>1.132840576304303</v>
+      </c>
+      <c r="L29">
+        <v>1.058270036562936</v>
+      </c>
+      <c r="M29">
+        <v>0.8612953424372707</v>
+      </c>
+      <c r="N29">
+        <v>0.8612953424372707</v>
+      </c>
+      <c r="O29">
+        <v>0.8509790124063322</v>
+      </c>
+      <c r="P29">
+        <v>0.9518104203929481</v>
+      </c>
+      <c r="Q29">
+        <v>0.9518104203929481</v>
+      </c>
+      <c r="R29">
+        <v>0.9970679593707867</v>
+      </c>
+      <c r="S29">
+        <v>0.9970679593707867</v>
+      </c>
+      <c r="T29">
+        <v>0.9844509378859684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.8626631332337098</v>
+      </c>
+      <c r="D30">
+        <v>1.056977340460227</v>
+      </c>
+      <c r="E30">
+        <v>0.9936106352736677</v>
+      </c>
+      <c r="F30">
+        <v>0.8626631332337098</v>
+      </c>
+      <c r="G30">
+        <v>1.166862459218242</v>
+      </c>
+      <c r="H30">
+        <v>0.9092142005876882</v>
+      </c>
+      <c r="I30">
+        <v>0.9936106352736677</v>
+      </c>
+      <c r="J30">
+        <v>1.03841136121303</v>
+      </c>
+      <c r="K30">
+        <v>0.9936106352736677</v>
+      </c>
+      <c r="L30">
+        <v>1.056977340460227</v>
+      </c>
+      <c r="M30">
+        <v>0.9598202368469684</v>
+      </c>
+      <c r="N30">
+        <v>0.9598202368469684</v>
+      </c>
+      <c r="O30">
+        <v>0.942951558093875</v>
+      </c>
+      <c r="P30">
+        <v>0.9710837029892015</v>
+      </c>
+      <c r="Q30">
+        <v>0.9710837029892015</v>
+      </c>
+      <c r="R30">
+        <v>0.9767154360603181</v>
+      </c>
+      <c r="S30">
+        <v>0.9767154360603181</v>
+      </c>
+      <c r="T30">
+        <v>1.004623188331094</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.8585668678351542</v>
+      </c>
+      <c r="D31">
+        <v>1.068228221378537</v>
+      </c>
+      <c r="E31">
+        <v>0.9760374462495258</v>
+      </c>
+      <c r="F31">
+        <v>0.8585668678351542</v>
+      </c>
+      <c r="G31">
+        <v>1.201618243195922</v>
+      </c>
+      <c r="H31">
+        <v>0.9006826653629786</v>
+      </c>
+      <c r="I31">
+        <v>0.9760374462495258</v>
+      </c>
+      <c r="J31">
+        <v>1.041223683775198</v>
+      </c>
+      <c r="K31">
+        <v>0.9760374462495258</v>
+      </c>
+      <c r="L31">
+        <v>1.068228221378537</v>
+      </c>
+      <c r="M31">
+        <v>0.9633975446068459</v>
+      </c>
+      <c r="N31">
+        <v>0.9633975446068459</v>
+      </c>
+      <c r="O31">
+        <v>0.9424925848588902</v>
+      </c>
+      <c r="P31">
+        <v>0.967610845154406</v>
+      </c>
+      <c r="Q31">
+        <v>0.967610845154406</v>
+      </c>
+      <c r="R31">
+        <v>0.969717495428186</v>
+      </c>
+      <c r="S31">
+        <v>0.969717495428186</v>
+      </c>
+      <c r="T31">
+        <v>1.00772618796622</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.4620421869041096</v>
+      </c>
+      <c r="D32">
+        <v>1.055938477671233</v>
+      </c>
+      <c r="E32">
+        <v>1.28311707369863</v>
+      </c>
+      <c r="F32">
+        <v>0.4620421869041096</v>
+      </c>
+      <c r="G32">
+        <v>1.107934592465754</v>
+      </c>
+      <c r="H32">
+        <v>0.7499914676712334</v>
+      </c>
+      <c r="I32">
+        <v>1.28311707369863</v>
+      </c>
+      <c r="J32">
+        <v>1.121740810958904</v>
+      </c>
+      <c r="K32">
+        <v>1.28311707369863</v>
+      </c>
+      <c r="L32">
+        <v>1.055938477671233</v>
+      </c>
+      <c r="M32">
+        <v>0.7589903322876713</v>
+      </c>
+      <c r="N32">
+        <v>0.7589903322876713</v>
+      </c>
+      <c r="O32">
+        <v>0.7559907107488586</v>
+      </c>
+      <c r="P32">
+        <v>0.9336992460913242</v>
+      </c>
+      <c r="Q32">
+        <v>0.9336992460913242</v>
+      </c>
+      <c r="R32">
+        <v>1.021053702993151</v>
+      </c>
+      <c r="S32">
+        <v>1.021053702993151</v>
+      </c>
+      <c r="T32">
+        <v>0.9634607682283107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.9405904054210528</v>
+      </c>
+      <c r="D33">
+        <v>1.118801489473684</v>
+      </c>
+      <c r="E33">
+        <v>0.8607322221052631</v>
+      </c>
+      <c r="F33">
+        <v>0.9405904054210528</v>
+      </c>
+      <c r="G33">
+        <v>1.459280826842105</v>
+      </c>
+      <c r="H33">
+        <v>0.856683262631579</v>
+      </c>
+      <c r="I33">
+        <v>0.8607322221052631</v>
+      </c>
+      <c r="J33">
+        <v>1.042086518947368</v>
+      </c>
+      <c r="K33">
+        <v>0.8607322221052631</v>
+      </c>
+      <c r="L33">
+        <v>1.118801489473684</v>
+      </c>
+      <c r="M33">
+        <v>1.029695947447368</v>
+      </c>
+      <c r="N33">
+        <v>1.029695947447368</v>
+      </c>
+      <c r="O33">
+        <v>0.9720250525087719</v>
+      </c>
+      <c r="P33">
+        <v>0.9733747056666666</v>
+      </c>
+      <c r="Q33">
+        <v>0.9733747056666667</v>
+      </c>
+      <c r="R33">
+        <v>0.9452140847763159</v>
+      </c>
+      <c r="S33">
+        <v>0.9452140847763159</v>
+      </c>
+      <c r="T33">
+        <v>1.046362454236842</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.3887757631578947</v>
+      </c>
+      <c r="D34">
+        <v>1.064516404736842</v>
+      </c>
+      <c r="E34">
+        <v>1.336624538947369</v>
+      </c>
+      <c r="F34">
+        <v>0.3887757631578947</v>
+      </c>
+      <c r="G34">
+        <v>1.134258288947368</v>
+      </c>
+      <c r="H34">
+        <v>0.7011466047368421</v>
+      </c>
+      <c r="I34">
+        <v>1.336624538947369</v>
+      </c>
+      <c r="J34">
+        <v>1.143109857894737</v>
+      </c>
+      <c r="K34">
+        <v>1.336624538947369</v>
+      </c>
+      <c r="L34">
+        <v>1.064516404736842</v>
+      </c>
+      <c r="M34">
+        <v>0.7266460839473684</v>
+      </c>
+      <c r="N34">
+        <v>0.7266460839473684</v>
+      </c>
+      <c r="O34">
+        <v>0.7181462575438596</v>
+      </c>
+      <c r="P34">
+        <v>0.9299722356140352</v>
+      </c>
+      <c r="Q34">
+        <v>0.9299722356140352</v>
+      </c>
+      <c r="R34">
+        <v>1.031635311447369</v>
+      </c>
+      <c r="S34">
+        <v>1.031635311447369</v>
+      </c>
+      <c r="T34">
+        <v>0.9614052430701756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.5098462357577843</v>
+      </c>
+      <c r="D35">
+        <v>1.253225019500203</v>
+      </c>
+      <c r="E35">
+        <v>0.8855653395987215</v>
+      </c>
+      <c r="F35">
+        <v>0.5098462357577843</v>
+      </c>
+      <c r="G35">
+        <v>1.763854918700263</v>
+      </c>
+      <c r="H35">
+        <v>0.6436167710846297</v>
+      </c>
+      <c r="I35">
+        <v>0.8855653395987215</v>
+      </c>
+      <c r="J35">
+        <v>1.145226446358589</v>
+      </c>
+      <c r="K35">
+        <v>0.8855653395987215</v>
+      </c>
+      <c r="L35">
+        <v>1.253225019500203</v>
+      </c>
+      <c r="M35">
+        <v>0.8815356276289938</v>
+      </c>
+      <c r="N35">
+        <v>0.8815356276289938</v>
+      </c>
+      <c r="O35">
+        <v>0.8022293421142058</v>
+      </c>
+      <c r="P35">
+        <v>0.8828788649522364</v>
+      </c>
+      <c r="Q35">
+        <v>0.8828788649522363</v>
+      </c>
+      <c r="R35">
+        <v>0.8835504836138577</v>
+      </c>
+      <c r="S35">
+        <v>0.8835504836138577</v>
+      </c>
+      <c r="T35">
+        <v>1.033555788500032</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000777859250564</v>
+      </c>
+      <c r="D36">
+        <v>1.000970396618215</v>
+      </c>
+      <c r="E36">
+        <v>0.9974529059435068</v>
+      </c>
+      <c r="F36">
+        <v>1.000777859250564</v>
+      </c>
+      <c r="G36">
+        <v>1.002351910355692</v>
+      </c>
+      <c r="H36">
+        <v>1.000072089021915</v>
+      </c>
+      <c r="I36">
+        <v>0.9974529059435068</v>
+      </c>
+      <c r="J36">
+        <v>0.9999376430275392</v>
+      </c>
+      <c r="K36">
+        <v>0.9974529059435068</v>
+      </c>
+      <c r="L36">
+        <v>1.000970396618215</v>
+      </c>
+      <c r="M36">
+        <v>1.00087412793439</v>
+      </c>
+      <c r="N36">
+        <v>1.00087412793439</v>
+      </c>
+      <c r="O36">
+        <v>1.000606781630231</v>
+      </c>
+      <c r="P36">
+        <v>0.9997337206040954</v>
+      </c>
+      <c r="Q36">
+        <v>0.9997337206040952</v>
+      </c>
+      <c r="R36">
+        <v>0.9991635169389481</v>
+      </c>
+      <c r="S36">
+        <v>0.9991635169389481</v>
+      </c>
+      <c r="T36">
+        <v>1.000260467369572</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9974867230340878</v>
+      </c>
+      <c r="D37">
+        <v>0.999335279173116</v>
+      </c>
+      <c r="E37">
+        <v>1.003227373974132</v>
+      </c>
+      <c r="F37">
+        <v>0.9974867230340878</v>
+      </c>
+      <c r="G37">
+        <v>0.9987137058077364</v>
+      </c>
+      <c r="H37">
+        <v>0.9989709214482465</v>
+      </c>
+      <c r="I37">
+        <v>1.003227373974132</v>
+      </c>
+      <c r="J37">
+        <v>1.000476751768108</v>
+      </c>
+      <c r="K37">
+        <v>1.003227373974132</v>
+      </c>
+      <c r="L37">
+        <v>0.999335279173116</v>
+      </c>
+      <c r="M37">
+        <v>0.9984110011036019</v>
+      </c>
+      <c r="N37">
+        <v>0.9984110011036019</v>
+      </c>
+      <c r="O37">
+        <v>0.9985976412184835</v>
+      </c>
+      <c r="P37">
+        <v>1.000016458727112</v>
+      </c>
+      <c r="Q37">
+        <v>1.000016458727112</v>
+      </c>
+      <c r="R37">
+        <v>1.000819187538867</v>
+      </c>
+      <c r="S37">
+        <v>1.000819187538867</v>
+      </c>
+      <c r="T37">
+        <v>0.9997017925342377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9950332143581752</v>
+      </c>
+      <c r="D38">
+        <v>1.003334811808597</v>
+      </c>
+      <c r="E38">
+        <v>0.9969845637498858</v>
+      </c>
+      <c r="F38">
+        <v>0.9950332143581752</v>
+      </c>
+      <c r="G38">
+        <v>1.007481577145306</v>
+      </c>
+      <c r="H38">
+        <v>0.9969516224109556</v>
+      </c>
+      <c r="I38">
+        <v>0.9969845637498858</v>
+      </c>
+      <c r="J38">
+        <v>1.001408943704903</v>
+      </c>
+      <c r="K38">
+        <v>0.9969845637498858</v>
+      </c>
+      <c r="L38">
+        <v>1.003334811808597</v>
+      </c>
+      <c r="M38">
+        <v>0.999184013083386</v>
+      </c>
+      <c r="N38">
+        <v>0.999184013083386</v>
+      </c>
+      <c r="O38">
+        <v>0.9984398828592426</v>
+      </c>
+      <c r="P38">
+        <v>0.9984508633055525</v>
+      </c>
+      <c r="Q38">
+        <v>0.9984508633055525</v>
+      </c>
+      <c r="R38">
+        <v>0.9980842884166359</v>
+      </c>
+      <c r="S38">
+        <v>0.9980842884166359</v>
+      </c>
+      <c r="T38">
+        <v>1.000199122196304</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.989376662585399</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.011207167481824</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.9844770699603106</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.989376662585399</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.023427880688184</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9933307393786437</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9844770699603106</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.003358084575801</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9844770699603106</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.011207167481824</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.000291915033612</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.000291915033612</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9979715231486225</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9950203000091781</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9950203000091781</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9923844924969611</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9923844924969611</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.000862934111694</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8602750617692668</v>
+      </c>
+      <c r="D40">
+        <v>1.06192191283629</v>
+      </c>
+      <c r="E40">
+        <v>0.9872595125146306</v>
+      </c>
+      <c r="F40">
+        <v>0.8602750617692668</v>
+      </c>
+      <c r="G40">
+        <v>1.191930620615047</v>
+      </c>
+      <c r="H40">
+        <v>0.9022224466072812</v>
+      </c>
+      <c r="I40">
+        <v>0.9872595125146306</v>
+      </c>
+      <c r="J40">
+        <v>1.040035762706007</v>
+      </c>
+      <c r="K40">
+        <v>0.9872595125146306</v>
+      </c>
+      <c r="L40">
+        <v>1.06192191283629</v>
+      </c>
+      <c r="M40">
+        <v>0.9610984873027786</v>
+      </c>
+      <c r="N40">
+        <v>0.9610984873027786</v>
+      </c>
+      <c r="O40">
+        <v>0.9414731404042795</v>
+      </c>
+      <c r="P40">
+        <v>0.9698188290400626</v>
+      </c>
+      <c r="Q40">
+        <v>0.9698188290400626</v>
+      </c>
+      <c r="R40">
+        <v>0.9741789999087046</v>
+      </c>
+      <c r="S40">
+        <v>0.9741789999087046</v>
+      </c>
+      <c r="T40">
+        <v>1.007274219508087</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.003074221864682</v>
+      </c>
+      <c r="D41">
+        <v>0.9943188492558268</v>
+      </c>
+      <c r="E41">
+        <v>1.006607447878449</v>
+      </c>
+      <c r="F41">
+        <v>1.003074221864682</v>
+      </c>
+      <c r="G41">
+        <v>0.9779868122485912</v>
+      </c>
+      <c r="H41">
+        <v>1.006972178406666</v>
+      </c>
+      <c r="I41">
+        <v>1.006607447878449</v>
+      </c>
+      <c r="J41">
+        <v>0.9978892601249038</v>
+      </c>
+      <c r="K41">
+        <v>1.006607447878449</v>
+      </c>
+      <c r="L41">
+        <v>0.9943188492558268</v>
+      </c>
+      <c r="M41">
+        <v>0.9986965355602543</v>
+      </c>
+      <c r="N41">
+        <v>0.9986965355602543</v>
+      </c>
+      <c r="O41">
+        <v>1.001455083175725</v>
+      </c>
+      <c r="P41">
+        <v>1.001333506332986</v>
+      </c>
+      <c r="Q41">
+        <v>1.001333506332986</v>
+      </c>
+      <c r="R41">
+        <v>1.002651991719352</v>
+      </c>
+      <c r="S41">
+        <v>1.002651991719352</v>
+      </c>
+      <c r="T41">
+        <v>0.9978081282965198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.7198939036651797</v>
+      </c>
+      <c r="D42">
+        <v>1.074355371018533</v>
+      </c>
+      <c r="E42">
+        <v>1.072063353254278</v>
+      </c>
+      <c r="F42">
+        <v>0.7198939036651797</v>
+      </c>
+      <c r="G42">
+        <v>1.238633325280206</v>
+      </c>
+      <c r="H42">
+        <v>0.8267257526187761</v>
+      </c>
+      <c r="I42">
+        <v>1.072063353254278</v>
+      </c>
+      <c r="J42">
+        <v>1.07384392846464</v>
+      </c>
+      <c r="K42">
+        <v>1.072063353254278</v>
+      </c>
+      <c r="L42">
+        <v>1.074355371018533</v>
+      </c>
+      <c r="M42">
+        <v>0.8971246373418562</v>
+      </c>
+      <c r="N42">
+        <v>0.8971246373418562</v>
+      </c>
+      <c r="O42">
+        <v>0.873658342434163</v>
+      </c>
+      <c r="P42">
+        <v>0.9554375426459968</v>
+      </c>
+      <c r="Q42">
+        <v>0.9554375426459968</v>
+      </c>
+      <c r="R42">
+        <v>0.9845939952980671</v>
+      </c>
+      <c r="S42">
+        <v>0.9845939952980671</v>
+      </c>
+      <c r="T42">
+        <v>1.000919272383602</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW20.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.011270260820502</v>
+        <v>0.9970432092724693</v>
       </c>
       <c r="D3">
-        <v>0.9771689462865695</v>
+        <v>1.001127648254435</v>
       </c>
       <c r="E3">
-        <v>1.002750042853877</v>
+        <v>1.000105370039895</v>
       </c>
       <c r="F3">
-        <v>1.011270260820502</v>
+        <v>0.9970432092724693</v>
       </c>
       <c r="G3">
-        <v>1.005567019423683</v>
+        <v>1.003458333065472</v>
       </c>
       <c r="H3">
-        <v>0.9892505643275699</v>
+        <v>0.9980231408363287</v>
       </c>
       <c r="I3">
-        <v>1.005213652666608</v>
+        <v>1.000105370039895</v>
       </c>
       <c r="J3">
-        <v>0.9771689462865695</v>
+        <v>1.000823550494078</v>
       </c>
       <c r="K3">
-        <v>1.011270260820502</v>
+        <v>1.000105370039895</v>
       </c>
       <c r="L3">
-        <v>1.002750042853877</v>
+        <v>1.001127648254435</v>
       </c>
       <c r="M3">
-        <v>0.989959494570223</v>
+        <v>0.9990854287634521</v>
       </c>
       <c r="N3">
-        <v>0.989959494570223</v>
+        <v>0.9990854287634521</v>
       </c>
       <c r="O3">
-        <v>0.9897231844893386</v>
+        <v>0.9987313327877443</v>
       </c>
       <c r="P3">
-        <v>0.9970630833203161</v>
+        <v>0.9994254091889331</v>
       </c>
       <c r="Q3">
-        <v>0.9970630833203162</v>
+        <v>0.9994254091889331</v>
       </c>
       <c r="R3">
-        <v>1.000614877695363</v>
+        <v>0.9995953994016736</v>
       </c>
       <c r="S3">
-        <v>1.000614877695363</v>
+        <v>0.9995953994016736</v>
       </c>
       <c r="T3">
-        <v>0.9985367477298014</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000096875327113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.022080516986999</v>
+        <v>0.8602750617692668</v>
       </c>
       <c r="D4">
-        <v>0.9558718183080707</v>
+        <v>1.06192191283629</v>
       </c>
       <c r="E4">
-        <v>1.00518049189032</v>
+        <v>0.9872595125146306</v>
       </c>
       <c r="F4">
-        <v>1.022080516986999</v>
+        <v>0.8602750617692668</v>
       </c>
       <c r="G4">
-        <v>1.010511115276987</v>
+        <v>1.191930620615047</v>
       </c>
       <c r="H4">
-        <v>0.9792312084819305</v>
+        <v>0.9022224466072812</v>
       </c>
       <c r="I4">
-        <v>1.010064541849659</v>
+        <v>0.9872595125146306</v>
       </c>
       <c r="J4">
-        <v>0.9558718183080707</v>
+        <v>1.040035762706007</v>
       </c>
       <c r="K4">
-        <v>1.022080516986999</v>
+        <v>0.9872595125146306</v>
       </c>
       <c r="L4">
-        <v>1.00518049189032</v>
+        <v>1.06192191283629</v>
       </c>
       <c r="M4">
-        <v>0.9805261550991955</v>
+        <v>0.9610984873027786</v>
       </c>
       <c r="N4">
-        <v>0.9805261550991955</v>
+        <v>0.9610984873027786</v>
       </c>
       <c r="O4">
-        <v>0.9800945062267737</v>
+        <v>0.9414731404042795</v>
       </c>
       <c r="P4">
-        <v>0.9943776090617966</v>
+        <v>0.9698188290400626</v>
       </c>
       <c r="Q4">
-        <v>0.9943776090617966</v>
+        <v>0.9698188290400626</v>
       </c>
       <c r="R4">
-        <v>1.001303336043097</v>
+        <v>0.9741789999087046</v>
       </c>
       <c r="S4">
-        <v>1.001303336043097</v>
+        <v>0.9741789999087046</v>
       </c>
       <c r="T4">
-        <v>0.997156615465661</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.007274219508087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.040499617253213</v>
+        <v>0.830883265982709</v>
       </c>
       <c r="D5">
-        <v>0.9163837054888958</v>
+        <v>1.067349177817004</v>
       </c>
       <c r="E5">
-        <v>1.010544962895993</v>
+        <v>0.9973786256700308</v>
       </c>
       <c r="F5">
-        <v>1.040499617253213</v>
+        <v>0.830883265982709</v>
       </c>
       <c r="G5">
-        <v>1.021984773058624</v>
+        <v>1.196132099070604</v>
       </c>
       <c r="H5">
-        <v>0.9602605921789186</v>
+        <v>0.8899977069236307</v>
       </c>
       <c r="I5">
-        <v>1.019193715702309</v>
+        <v>0.9973786256700308</v>
       </c>
       <c r="J5">
-        <v>0.9163837054888958</v>
+        <v>1.046816257608068</v>
       </c>
       <c r="K5">
-        <v>1.040499617253213</v>
+        <v>0.9973786256700308</v>
       </c>
       <c r="L5">
-        <v>1.010544962895993</v>
+        <v>1.067349177817004</v>
       </c>
       <c r="M5">
-        <v>0.9634643341924445</v>
+        <v>0.9491162218998563</v>
       </c>
       <c r="N5">
-        <v>0.9634643341924445</v>
+        <v>0.9491162218998563</v>
       </c>
       <c r="O5">
-        <v>0.9623964201879359</v>
+        <v>0.9294100502411146</v>
       </c>
       <c r="P5">
-        <v>0.9891427618793672</v>
+        <v>0.9652036898232478</v>
       </c>
       <c r="Q5">
-        <v>0.9891427618793672</v>
+        <v>0.9652036898232478</v>
       </c>
       <c r="R5">
-        <v>1.001981975722829</v>
+        <v>0.9732474237849436</v>
       </c>
       <c r="S5">
-        <v>1.001981975722829</v>
+        <v>0.9732474237849436</v>
       </c>
       <c r="T5">
-        <v>0.9948112277629922</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.004759522178674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.058490550320696</v>
+        <v>0.5098462357577843</v>
       </c>
       <c r="D6">
-        <v>0.8777910932755403</v>
+        <v>1.253225019500203</v>
       </c>
       <c r="E6">
-        <v>1.015906075657626</v>
+        <v>0.8855653395987215</v>
       </c>
       <c r="F6">
-        <v>1.058490550320696</v>
+        <v>0.5098462357577843</v>
       </c>
       <c r="G6">
-        <v>1.033011975974349</v>
+        <v>1.763854918700263</v>
       </c>
       <c r="H6">
-        <v>0.94168304463931</v>
+        <v>0.6436167710846297</v>
       </c>
       <c r="I6">
-        <v>1.028150552694659</v>
+        <v>0.8855653395987215</v>
       </c>
       <c r="J6">
-        <v>0.8777910932755403</v>
+        <v>1.145226446358589</v>
       </c>
       <c r="K6">
-        <v>1.058490550320696</v>
+        <v>0.8855653395987215</v>
       </c>
       <c r="L6">
-        <v>1.015906075657626</v>
+        <v>1.253225019500203</v>
       </c>
       <c r="M6">
-        <v>0.9468485844665833</v>
+        <v>0.8815356276289938</v>
       </c>
       <c r="N6">
-        <v>0.9468485844665833</v>
+        <v>0.8815356276289938</v>
       </c>
       <c r="O6">
-        <v>0.9451267378574921</v>
+        <v>0.8022293421142058</v>
       </c>
       <c r="P6">
-        <v>0.9840625730846208</v>
+        <v>0.8828788649522364</v>
       </c>
       <c r="Q6">
-        <v>0.9840625730846208</v>
+        <v>0.8828788649522363</v>
       </c>
       <c r="R6">
-        <v>1.002669567393639</v>
+        <v>0.8835504836138577</v>
       </c>
       <c r="S6">
-        <v>1.002669567393639</v>
+        <v>0.8835504836138577</v>
       </c>
       <c r="T6">
-        <v>0.9925055487603633</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.033555788500032</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999174981544495</v>
+        <v>0.9734000954026273</v>
       </c>
       <c r="D7">
-        <v>0.9989463666997889</v>
+        <v>1.002751750566703</v>
       </c>
       <c r="E7">
-        <v>1.000465791535869</v>
+        <v>1.014216113628993</v>
       </c>
       <c r="F7">
-        <v>0.9999174981544495</v>
+        <v>0.9734000954026273</v>
       </c>
       <c r="G7">
-        <v>1.001432436976523</v>
+        <v>1.005711708140419</v>
       </c>
       <c r="H7">
-        <v>0.9992594563126496</v>
+        <v>0.9873926512717989</v>
       </c>
       <c r="I7">
-        <v>1.000303370651129</v>
+        <v>1.014216113628993</v>
       </c>
       <c r="J7">
-        <v>0.9989463666997889</v>
+        <v>1.006084590794033</v>
       </c>
       <c r="K7">
-        <v>0.9999174981544495</v>
+        <v>1.014216113628993</v>
       </c>
       <c r="L7">
-        <v>1.000465791535869</v>
+        <v>1.002751750566703</v>
       </c>
       <c r="M7">
-        <v>0.9997060791178288</v>
+        <v>0.9880759229846652</v>
       </c>
       <c r="N7">
-        <v>0.9997060791178288</v>
+        <v>0.9880759229846652</v>
       </c>
       <c r="O7">
-        <v>0.9995572048494358</v>
+        <v>0.9878481657470431</v>
       </c>
       <c r="P7">
-        <v>0.9997765521300357</v>
+        <v>0.9967893198661079</v>
       </c>
       <c r="Q7">
-        <v>0.9997765521300357</v>
+        <v>0.9967893198661079</v>
       </c>
       <c r="R7">
-        <v>0.9998117886361392</v>
+        <v>1.001146018306829</v>
       </c>
       <c r="S7">
-        <v>0.9998117886361392</v>
+        <v>1.001146018306829</v>
       </c>
       <c r="T7">
-        <v>1.000054153388401</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9982594849674292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000105370039895</v>
+        <v>0.9974867230340878</v>
       </c>
       <c r="D8">
-        <v>0.9970432092724693</v>
+        <v>0.999335279173116</v>
       </c>
       <c r="E8">
-        <v>1.001127648254435</v>
+        <v>1.003227373974132</v>
       </c>
       <c r="F8">
-        <v>1.000105370039895</v>
+        <v>0.9974867230340878</v>
       </c>
       <c r="G8">
-        <v>1.003458333065472</v>
+        <v>0.9987137058077364</v>
       </c>
       <c r="H8">
-        <v>0.9980231408363288</v>
+        <v>0.9989709214482465</v>
       </c>
       <c r="I8">
-        <v>1.000823550494078</v>
+        <v>1.003227373974132</v>
       </c>
       <c r="J8">
-        <v>0.9970432092724693</v>
+        <v>1.000476751768108</v>
       </c>
       <c r="K8">
-        <v>1.000105370039895</v>
+        <v>1.003227373974132</v>
       </c>
       <c r="L8">
-        <v>1.001127648254435</v>
+        <v>0.999335279173116</v>
       </c>
       <c r="M8">
-        <v>0.9990854287634521</v>
+        <v>0.9984110011036019</v>
       </c>
       <c r="N8">
-        <v>0.9990854287634521</v>
+        <v>0.9984110011036019</v>
       </c>
       <c r="O8">
-        <v>0.9987313327877443</v>
+        <v>0.9985976412184835</v>
       </c>
       <c r="P8">
-        <v>0.9994254091889331</v>
+        <v>1.000016458727112</v>
       </c>
       <c r="Q8">
-        <v>0.9994254091889331</v>
+        <v>1.000016458727112</v>
       </c>
       <c r="R8">
-        <v>0.9995953994016736</v>
+        <v>1.000819187538867</v>
       </c>
       <c r="S8">
-        <v>0.9995953994016736</v>
+        <v>1.000819187538867</v>
       </c>
       <c r="T8">
-        <v>1.000096875327113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9997017925342377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000775848417098</v>
+        <v>0.9558718183080707</v>
       </c>
       <c r="D9">
-        <v>0.9956700557465415</v>
+        <v>1.00518049189032</v>
       </c>
       <c r="E9">
-        <v>1.001327291982254</v>
+        <v>1.022080516986999</v>
       </c>
       <c r="F9">
-        <v>1.000775848417098</v>
+        <v>0.9558718183080707</v>
       </c>
       <c r="G9">
-        <v>1.004192643581851</v>
+        <v>1.010511115276987</v>
       </c>
       <c r="H9">
-        <v>0.9972516889690823</v>
+        <v>0.9792312084819303</v>
       </c>
       <c r="I9">
-        <v>1.001154522478958</v>
+        <v>1.022080516986999</v>
       </c>
       <c r="J9">
-        <v>0.9956700557465415</v>
+        <v>1.010064541849659</v>
       </c>
       <c r="K9">
-        <v>1.000775848417098</v>
+        <v>1.022080516986999</v>
       </c>
       <c r="L9">
-        <v>1.001327291982254</v>
+        <v>1.00518049189032</v>
       </c>
       <c r="M9">
-        <v>0.9984986738643979</v>
+        <v>0.9805261550991955</v>
       </c>
       <c r="N9">
-        <v>0.9984986738643979</v>
+        <v>0.9805261550991955</v>
       </c>
       <c r="O9">
-        <v>0.9980830122326262</v>
+        <v>0.9800945062267737</v>
       </c>
       <c r="P9">
-        <v>0.9992577320486314</v>
+        <v>0.9943776090617966</v>
       </c>
       <c r="Q9">
-        <v>0.9992577320486314</v>
+        <v>0.9943776090617966</v>
       </c>
       <c r="R9">
-        <v>0.9996372611407481</v>
+        <v>1.001303336043097</v>
       </c>
       <c r="S9">
-        <v>0.9996372611407481</v>
+        <v>1.001303336043097</v>
       </c>
       <c r="T9">
-        <v>1.000062008529298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.997156615465661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000915342882885</v>
+        <v>0.50563293775109</v>
       </c>
       <c r="D10">
-        <v>0.9909824493107767</v>
+        <v>1.258378130370993</v>
       </c>
       <c r="E10">
-        <v>1.003127921192825</v>
+        <v>0.879344388721308</v>
       </c>
       <c r="F10">
-        <v>1.000915342882885</v>
+        <v>0.50563293775109</v>
       </c>
       <c r="G10">
-        <v>1.009869014499186</v>
+        <v>1.78036091168546</v>
       </c>
       <c r="H10">
-        <v>0.9940801794604059</v>
+        <v>0.6384490814895213</v>
       </c>
       <c r="I10">
-        <v>1.002458749692057</v>
+        <v>0.879344388721308</v>
       </c>
       <c r="J10">
-        <v>0.9909824493107767</v>
+        <v>1.147047505452614</v>
       </c>
       <c r="K10">
-        <v>1.000915342882885</v>
+        <v>0.879344388721308</v>
       </c>
       <c r="L10">
-        <v>1.003127921192825</v>
+        <v>1.258378130370993</v>
       </c>
       <c r="M10">
-        <v>0.997055185251801</v>
+        <v>0.8820055340610413</v>
       </c>
       <c r="N10">
-        <v>0.997055185251801</v>
+        <v>0.8820055340610413</v>
       </c>
       <c r="O10">
-        <v>0.9960635166546693</v>
+        <v>0.8008200498705347</v>
       </c>
       <c r="P10">
-        <v>0.9983419044621623</v>
+        <v>0.8811184856144636</v>
       </c>
       <c r="Q10">
-        <v>0.9983419044621623</v>
+        <v>0.8811184856144636</v>
       </c>
       <c r="R10">
-        <v>0.9989852640673429</v>
+        <v>0.8806749613911747</v>
       </c>
       <c r="S10">
-        <v>0.9989852640673429</v>
+        <v>0.8806749613911747</v>
       </c>
       <c r="T10">
-        <v>1.000238942839689</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.034868825911831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.003309241633728</v>
+        <v>0.8334062936899965</v>
       </c>
       <c r="D11">
-        <v>0.984461614416997</v>
+        <v>1.059297141875182</v>
       </c>
       <c r="E11">
-        <v>1.00456182741146</v>
+        <v>1.009735801461393</v>
       </c>
       <c r="F11">
-        <v>1.003309241633728</v>
+        <v>0.8334062936899965</v>
       </c>
       <c r="G11">
-        <v>1.01460299743839</v>
+        <v>1.176286203881333</v>
       </c>
       <c r="H11">
-        <v>0.9900961801399841</v>
+        <v>0.8950346221032158</v>
       </c>
       <c r="I11">
-        <v>1.004156043687364</v>
+        <v>1.009735801461393</v>
       </c>
       <c r="J11">
-        <v>0.984461614416997</v>
+        <v>1.044823088915561</v>
       </c>
       <c r="K11">
-        <v>1.003309241633728</v>
+        <v>1.009735801461393</v>
       </c>
       <c r="L11">
-        <v>1.00456182741146</v>
+        <v>1.059297141875182</v>
       </c>
       <c r="M11">
-        <v>0.9945117209142285</v>
+        <v>0.9463517177825893</v>
       </c>
       <c r="N11">
-        <v>0.9945117209142285</v>
+        <v>0.9463517177825893</v>
       </c>
       <c r="O11">
-        <v>0.9930398739894803</v>
+        <v>0.9292460192227981</v>
       </c>
       <c r="P11">
-        <v>0.9974442278207283</v>
+        <v>0.967479745675524</v>
       </c>
       <c r="Q11">
-        <v>0.9974442278207283</v>
+        <v>0.967479745675524</v>
       </c>
       <c r="R11">
-        <v>0.9989104812739782</v>
+        <v>0.9780437596219913</v>
       </c>
       <c r="S11">
-        <v>0.9989104812739782</v>
+        <v>0.9780437596219913</v>
       </c>
       <c r="T11">
-        <v>1.000197984121321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.00309719198778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9922572471170029</v>
+        <v>0.8466381731894742</v>
       </c>
       <c r="D12">
-        <v>1.101626299898492</v>
+        <v>1.078708505694736</v>
       </c>
       <c r="E12">
-        <v>0.9489364297427153</v>
+        <v>0.9659436718526322</v>
       </c>
       <c r="F12">
-        <v>0.9922572471170029</v>
+        <v>0.8466381731894742</v>
       </c>
       <c r="G12">
-        <v>0.7767753123789009</v>
+        <v>1.235750075768423</v>
       </c>
       <c r="H12">
-        <v>1.110748655632942</v>
+        <v>0.88850140811579</v>
       </c>
       <c r="I12">
-        <v>0.9616991050101645</v>
+        <v>0.9659436718526322</v>
       </c>
       <c r="J12">
-        <v>1.101626299898492</v>
+        <v>1.045655888442107</v>
       </c>
       <c r="K12">
-        <v>0.9922572471170029</v>
+        <v>0.9659436718526322</v>
       </c>
       <c r="L12">
-        <v>0.9489364297427153</v>
+        <v>1.078708505694736</v>
       </c>
       <c r="M12">
-        <v>1.025281364820604</v>
+        <v>0.962673339442105</v>
       </c>
       <c r="N12">
-        <v>1.025281364820604</v>
+        <v>0.962673339442105</v>
       </c>
       <c r="O12">
-        <v>1.05377046175805</v>
+        <v>0.9379493623333334</v>
       </c>
       <c r="P12">
-        <v>1.01427332558607</v>
+        <v>0.9637634502456139</v>
       </c>
       <c r="Q12">
-        <v>1.01427332558607</v>
+        <v>0.9637634502456139</v>
       </c>
       <c r="R12">
-        <v>1.008769305968803</v>
+        <v>0.9643085056473686</v>
       </c>
       <c r="S12">
-        <v>1.008769305968803</v>
+        <v>0.9643085056473686</v>
       </c>
       <c r="T12">
-        <v>0.9820071749633695</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.010199620510527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9921721339540674</v>
+        <v>1.132193690740872</v>
       </c>
       <c r="D13">
-        <v>1.132883522405263</v>
+        <v>0.9633449819361949</v>
       </c>
       <c r="E13">
-        <v>0.9720640083857234</v>
+        <v>0.9753668615980908</v>
       </c>
       <c r="F13">
-        <v>0.9921721339540674</v>
+        <v>1.132193690740872</v>
       </c>
       <c r="G13">
-        <v>1.017604791367014</v>
+        <v>0.9041848668552926</v>
       </c>
       <c r="H13">
-        <v>1.022855579633405</v>
+        <v>1.072703808370856</v>
       </c>
       <c r="I13">
-        <v>0.9778762920013906</v>
+        <v>0.9753668615980908</v>
       </c>
       <c r="J13">
-        <v>1.132883522405263</v>
+        <v>0.9668544029468399</v>
       </c>
       <c r="K13">
-        <v>0.9921721339540674</v>
+        <v>0.9753668615980908</v>
       </c>
       <c r="L13">
-        <v>0.9720640083857234</v>
+        <v>0.9633449819361949</v>
       </c>
       <c r="M13">
-        <v>1.052473765395493</v>
+        <v>1.047769336338533</v>
       </c>
       <c r="N13">
-        <v>1.052473765395493</v>
+        <v>1.047769336338533</v>
       </c>
       <c r="O13">
-        <v>1.042601036808131</v>
+        <v>1.056080827015974</v>
       </c>
       <c r="P13">
-        <v>1.032373221581685</v>
+        <v>1.023635178091719</v>
       </c>
       <c r="Q13">
-        <v>1.032373221581685</v>
+        <v>1.023635178091719</v>
       </c>
       <c r="R13">
-        <v>1.022322949674781</v>
+        <v>1.011568098968312</v>
       </c>
       <c r="S13">
-        <v>1.022322949674781</v>
+        <v>1.011568098968312</v>
       </c>
       <c r="T13">
-        <v>1.019242721291144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.002441435408024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.908012620831681</v>
+        <v>0.1528199099999999</v>
       </c>
       <c r="D14">
-        <v>1.549115821502245</v>
+        <v>1.449755100000001</v>
       </c>
       <c r="E14">
-        <v>0.8585598533017927</v>
+        <v>0.7801649100000014</v>
       </c>
       <c r="F14">
-        <v>0.908012620831681</v>
+        <v>0.1528199099999999</v>
       </c>
       <c r="G14">
-        <v>0.7087614410486682</v>
+        <v>2.3616691</v>
       </c>
       <c r="H14">
-        <v>1.256056155235608</v>
+        <v>0.3759523199999998</v>
       </c>
       <c r="I14">
-        <v>0.8728869136595594</v>
+        <v>0.7801649100000014</v>
       </c>
       <c r="J14">
-        <v>1.549115821502245</v>
+        <v>1.252999299999999</v>
       </c>
       <c r="K14">
-        <v>0.908012620831681</v>
+        <v>0.7801649100000014</v>
       </c>
       <c r="L14">
-        <v>0.8585598533017927</v>
+        <v>1.449755100000001</v>
       </c>
       <c r="M14">
-        <v>1.203837837402019</v>
+        <v>0.8012875050000005</v>
       </c>
       <c r="N14">
-        <v>1.203837837402019</v>
+        <v>0.8012875050000005</v>
       </c>
       <c r="O14">
-        <v>1.221243943346549</v>
+        <v>0.6595091100000002</v>
       </c>
       <c r="P14">
-        <v>1.105229431878573</v>
+        <v>0.7942466400000008</v>
       </c>
       <c r="Q14">
-        <v>1.105229431878573</v>
+        <v>0.7942466400000008</v>
       </c>
       <c r="R14">
-        <v>1.05592522911685</v>
+        <v>0.790726207500001</v>
       </c>
       <c r="S14">
-        <v>1.05592522911685</v>
+        <v>0.790726207500001</v>
       </c>
       <c r="T14">
-        <v>1.025565467596593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.062226773333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9249399639844021</v>
+        <v>0.21885897</v>
       </c>
       <c r="D15">
-        <v>1.042385046805335</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="E15">
-        <v>0.9969324457096592</v>
+        <v>1.9813918</v>
       </c>
       <c r="F15">
-        <v>0.9249399639844021</v>
+        <v>0.21885897</v>
       </c>
       <c r="G15">
-        <v>0.8961665861003301</v>
+        <v>0.66920919</v>
       </c>
       <c r="H15">
-        <v>1.079648388150934</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="I15">
-        <v>0.9759547582133786</v>
+        <v>1.9813918</v>
       </c>
       <c r="J15">
-        <v>1.042385046805335</v>
+        <v>1.1585466</v>
       </c>
       <c r="K15">
-        <v>0.9249399639844021</v>
+        <v>1.9813918</v>
       </c>
       <c r="L15">
-        <v>0.9969324457096592</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M15">
-        <v>1.019658746257497</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N15">
-        <v>1.019658746257497</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O15">
-        <v>1.039655293555309</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P15">
-        <v>0.9880858188331322</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q15">
-        <v>0.988085818833132</v>
+        <v>1.00974314</v>
       </c>
       <c r="R15">
-        <v>0.9722993551209496</v>
+        <v>1.252655305</v>
       </c>
       <c r="S15">
-        <v>0.9722993551209496</v>
+        <v>1.252655305</v>
       </c>
       <c r="T15">
-        <v>0.9860045314940065</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>0.9170682983333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9974529059435068</v>
+        <v>0.097009683</v>
       </c>
       <c r="D16">
-        <v>1.000777859250564</v>
+        <v>1.4922976</v>
       </c>
       <c r="E16">
-        <v>1.000970396618215</v>
+        <v>0.7368620299999999</v>
       </c>
       <c r="F16">
-        <v>0.9974529059435068</v>
+        <v>0.097009683</v>
       </c>
       <c r="G16">
-        <v>1.002351910355692</v>
+        <v>2.6440436</v>
       </c>
       <c r="H16">
-        <v>1.000072089021915</v>
+        <v>0.29618032</v>
       </c>
       <c r="I16">
-        <v>0.9999376430275392</v>
+        <v>0.7368620299999999</v>
       </c>
       <c r="J16">
-        <v>1.000777859250564</v>
+        <v>1.2695783</v>
       </c>
       <c r="K16">
-        <v>0.9974529059435068</v>
+        <v>0.7368620299999999</v>
       </c>
       <c r="L16">
-        <v>1.000970396618215</v>
+        <v>1.4922976</v>
       </c>
       <c r="M16">
-        <v>1.000874127934389</v>
+        <v>0.7946536415</v>
       </c>
       <c r="N16">
-        <v>1.000874127934389</v>
+        <v>0.7946536415</v>
       </c>
       <c r="O16">
-        <v>1.000606781630231</v>
+        <v>0.6284958676666667</v>
       </c>
       <c r="P16">
-        <v>0.9997337206040952</v>
+        <v>0.7753897709999999</v>
       </c>
       <c r="Q16">
-        <v>0.9997337206040952</v>
+        <v>0.7753897709999999</v>
       </c>
       <c r="R16">
-        <v>0.9991635169389481</v>
+        <v>0.7657578357499999</v>
       </c>
       <c r="S16">
-        <v>0.9991635169389481</v>
+        <v>0.7657578357499999</v>
       </c>
       <c r="T16">
-        <v>1.000260467369572</v>
+        <v>1.089328588833333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.003227373974132</v>
+        <v>1.3016633</v>
       </c>
       <c r="D17">
-        <v>0.9974867230340878</v>
+        <v>0.90659849</v>
       </c>
       <c r="E17">
-        <v>0.9993352791731164</v>
+        <v>0.99082288</v>
       </c>
       <c r="F17">
-        <v>1.003227373974132</v>
+        <v>1.3016633</v>
       </c>
       <c r="G17">
-        <v>0.9987137058077364</v>
+        <v>0.78853831</v>
       </c>
       <c r="H17">
-        <v>0.9989709214482465</v>
+        <v>1.1395353</v>
       </c>
       <c r="I17">
-        <v>1.000476751768108</v>
+        <v>0.99082288</v>
       </c>
       <c r="J17">
-        <v>0.9974867230340878</v>
+        <v>0.93232084</v>
       </c>
       <c r="K17">
-        <v>1.003227373974132</v>
+        <v>0.99082288</v>
       </c>
       <c r="L17">
-        <v>0.9993352791731164</v>
+        <v>0.90659849</v>
       </c>
       <c r="M17">
-        <v>0.998411001103602</v>
+        <v>1.104130895</v>
       </c>
       <c r="N17">
-        <v>0.998411001103602</v>
+        <v>1.104130895</v>
       </c>
       <c r="O17">
-        <v>0.9985976412184835</v>
+        <v>1.115932363333333</v>
       </c>
       <c r="P17">
-        <v>1.000016458727112</v>
+        <v>1.066361556666667</v>
       </c>
       <c r="Q17">
-        <v>1.000016458727112</v>
+        <v>1.066361556666667</v>
       </c>
       <c r="R17">
-        <v>1.000819187538867</v>
+        <v>1.0474768875</v>
       </c>
       <c r="S17">
-        <v>1.000819187538867</v>
+        <v>1.0474768875</v>
       </c>
       <c r="T17">
-        <v>0.9997017925342379</v>
+        <v>1.009913186666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9969845637498859</v>
+        <v>0.4620421869041096</v>
       </c>
       <c r="D18">
-        <v>0.9950332143581758</v>
+        <v>1.055938477671233</v>
       </c>
       <c r="E18">
-        <v>1.003334811808597</v>
+        <v>1.28311707369863</v>
       </c>
       <c r="F18">
-        <v>0.9969845637498859</v>
+        <v>0.4620421869041096</v>
       </c>
       <c r="G18">
-        <v>1.007481577145306</v>
+        <v>1.107934592465754</v>
       </c>
       <c r="H18">
-        <v>0.9969516224109557</v>
+        <v>0.7499914676712334</v>
       </c>
       <c r="I18">
-        <v>1.001408943704903</v>
+        <v>1.28311707369863</v>
       </c>
       <c r="J18">
-        <v>0.9950332143581758</v>
+        <v>1.121740810958904</v>
       </c>
       <c r="K18">
-        <v>0.9969845637498859</v>
+        <v>1.28311707369863</v>
       </c>
       <c r="L18">
-        <v>1.003334811808597</v>
+        <v>1.055938477671233</v>
       </c>
       <c r="M18">
-        <v>0.9991840130833864</v>
+        <v>0.7589903322876713</v>
       </c>
       <c r="N18">
-        <v>0.9991840130833864</v>
+        <v>0.7589903322876713</v>
       </c>
       <c r="O18">
-        <v>0.9984398828592429</v>
+        <v>0.7559907107488586</v>
       </c>
       <c r="P18">
-        <v>0.9984508633055529</v>
+        <v>0.9336992460913242</v>
       </c>
       <c r="Q18">
-        <v>0.9984508633055529</v>
+        <v>0.9336992460913242</v>
       </c>
       <c r="R18">
-        <v>0.9980842884166361</v>
+        <v>1.021053702993151</v>
       </c>
       <c r="S18">
-        <v>0.9980842884166361</v>
+        <v>1.021053702993151</v>
       </c>
       <c r="T18">
-        <v>1.000199122196304</v>
+        <v>0.9634607682283107</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9844770699603106</v>
+        <v>0.9405904054210528</v>
       </c>
       <c r="D19">
-        <v>0.989376662585399</v>
+        <v>1.118801489473684</v>
       </c>
       <c r="E19">
-        <v>1.011207167481824</v>
+        <v>0.8607322221052631</v>
       </c>
       <c r="F19">
-        <v>0.9844770699603106</v>
+        <v>0.9405904054210528</v>
       </c>
       <c r="G19">
-        <v>1.023427880688184</v>
+        <v>1.459280826842105</v>
       </c>
       <c r="H19">
-        <v>0.9933307393786437</v>
+        <v>0.856683262631579</v>
       </c>
       <c r="I19">
-        <v>1.003358084575801</v>
+        <v>0.8607322221052631</v>
       </c>
       <c r="J19">
-        <v>0.989376662585399</v>
+        <v>1.042086518947368</v>
       </c>
       <c r="K19">
-        <v>0.9844770699603106</v>
+        <v>0.8607322221052631</v>
       </c>
       <c r="L19">
-        <v>1.011207167481824</v>
+        <v>1.118801489473684</v>
       </c>
       <c r="M19">
-        <v>1.000291915033612</v>
+        <v>1.029695947447368</v>
       </c>
       <c r="N19">
-        <v>1.000291915033612</v>
+        <v>1.029695947447368</v>
       </c>
       <c r="O19">
-        <v>0.9979715231486225</v>
+        <v>0.9720250525087719</v>
       </c>
       <c r="P19">
-        <v>0.9950203000091781</v>
+        <v>0.9733747056666666</v>
       </c>
       <c r="Q19">
-        <v>0.9950203000091781</v>
+        <v>0.9733747056666667</v>
       </c>
       <c r="R19">
-        <v>0.9923844924969611</v>
+        <v>0.9452140847763159</v>
       </c>
       <c r="S19">
-        <v>0.9923844924969611</v>
+        <v>0.9452140847763159</v>
       </c>
       <c r="T19">
-        <v>1.000862934111694</v>
+        <v>1.046362454236842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.3887757631578947</v>
+      </c>
+      <c r="D20">
+        <v>1.064516404736842</v>
+      </c>
+      <c r="E20">
+        <v>1.336624538947369</v>
+      </c>
+      <c r="F20">
+        <v>0.3887757631578947</v>
+      </c>
+      <c r="G20">
+        <v>1.134258288947368</v>
+      </c>
+      <c r="H20">
+        <v>0.7011466047368421</v>
+      </c>
+      <c r="I20">
+        <v>1.336624538947369</v>
+      </c>
+      <c r="J20">
+        <v>1.143109857894737</v>
+      </c>
+      <c r="K20">
+        <v>1.336624538947369</v>
+      </c>
+      <c r="L20">
+        <v>1.064516404736842</v>
+      </c>
+      <c r="M20">
+        <v>0.7266460839473684</v>
+      </c>
+      <c r="N20">
+        <v>0.7266460839473684</v>
+      </c>
+      <c r="O20">
+        <v>0.7181462575438596</v>
+      </c>
+      <c r="P20">
+        <v>0.9299722356140352</v>
+      </c>
+      <c r="Q20">
+        <v>0.9299722356140352</v>
+      </c>
+      <c r="R20">
+        <v>1.031635311447369</v>
+      </c>
+      <c r="S20">
+        <v>1.031635311447369</v>
+      </c>
+      <c r="T20">
+        <v>0.9614052430701756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.549115821502245</v>
+      </c>
+      <c r="D21">
+        <v>0.8585598533017926</v>
+      </c>
+      <c r="E21">
+        <v>0.9080126208316811</v>
+      </c>
+      <c r="F21">
+        <v>1.549115821502245</v>
+      </c>
+      <c r="G21">
+        <v>0.7087614410486681</v>
+      </c>
+      <c r="H21">
+        <v>1.256056155235608</v>
+      </c>
+      <c r="I21">
+        <v>0.9080126208316811</v>
+      </c>
+      <c r="J21">
+        <v>0.8728869136595593</v>
+      </c>
+      <c r="K21">
+        <v>0.9080126208316811</v>
+      </c>
+      <c r="L21">
+        <v>0.8585598533017926</v>
+      </c>
+      <c r="M21">
+        <v>1.203837837402019</v>
+      </c>
+      <c r="N21">
+        <v>1.203837837402019</v>
+      </c>
+      <c r="O21">
+        <v>1.221243943346549</v>
+      </c>
+      <c r="P21">
+        <v>1.105229431878573</v>
+      </c>
+      <c r="Q21">
+        <v>1.105229431878573</v>
+      </c>
+      <c r="R21">
+        <v>1.05592522911685</v>
+      </c>
+      <c r="S21">
+        <v>1.05592522911685</v>
+      </c>
+      <c r="T21">
+        <v>1.025565467596592</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.042385046805335</v>
+      </c>
+      <c r="D22">
+        <v>0.9969324457096592</v>
+      </c>
+      <c r="E22">
+        <v>0.9249399639844021</v>
+      </c>
+      <c r="F22">
+        <v>1.042385046805335</v>
+      </c>
+      <c r="G22">
+        <v>0.8961665861003301</v>
+      </c>
+      <c r="H22">
+        <v>1.079648388150934</v>
+      </c>
+      <c r="I22">
+        <v>0.9249399639844021</v>
+      </c>
+      <c r="J22">
+        <v>0.9759547582133786</v>
+      </c>
+      <c r="K22">
+        <v>0.9249399639844021</v>
+      </c>
+      <c r="L22">
+        <v>0.9969324457096592</v>
+      </c>
+      <c r="M22">
+        <v>1.019658746257497</v>
+      </c>
+      <c r="N22">
+        <v>1.019658746257497</v>
+      </c>
+      <c r="O22">
+        <v>1.039655293555309</v>
+      </c>
+      <c r="P22">
+        <v>0.988085818833132</v>
+      </c>
+      <c r="Q22">
+        <v>0.988085818833132</v>
+      </c>
+      <c r="R22">
+        <v>0.9722993551209496</v>
+      </c>
+      <c r="S22">
+        <v>0.9722993551209496</v>
+      </c>
+      <c r="T22">
+        <v>0.9860045314940065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.101626299898492</v>
+      </c>
+      <c r="D23">
+        <v>0.9489364297427153</v>
+      </c>
+      <c r="E23">
+        <v>0.9922572471170032</v>
+      </c>
+      <c r="F23">
+        <v>1.101626299898492</v>
+      </c>
+      <c r="G23">
+        <v>0.7767753123789009</v>
+      </c>
+      <c r="H23">
+        <v>1.110748655632942</v>
+      </c>
+      <c r="I23">
+        <v>0.9922572471170032</v>
+      </c>
+      <c r="J23">
+        <v>0.9616991050101645</v>
+      </c>
+      <c r="K23">
+        <v>0.9922572471170032</v>
+      </c>
+      <c r="L23">
+        <v>0.9489364297427153</v>
+      </c>
+      <c r="M23">
+        <v>1.025281364820604</v>
+      </c>
+      <c r="N23">
+        <v>1.025281364820604</v>
+      </c>
+      <c r="O23">
+        <v>1.05377046175805</v>
+      </c>
+      <c r="P23">
+        <v>1.01427332558607</v>
+      </c>
+      <c r="Q23">
+        <v>1.014273325586071</v>
+      </c>
+      <c r="R23">
+        <v>1.008769305968804</v>
+      </c>
+      <c r="S23">
+        <v>1.008769305968804</v>
+      </c>
+      <c r="T23">
+        <v>0.9820071749633698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.132883522405263</v>
+      </c>
+      <c r="D24">
+        <v>0.9720640083857234</v>
+      </c>
+      <c r="E24">
+        <v>0.9921721339540672</v>
+      </c>
+      <c r="F24">
+        <v>1.132883522405263</v>
+      </c>
+      <c r="G24">
+        <v>1.017604791367014</v>
+      </c>
+      <c r="H24">
+        <v>1.022855579633406</v>
+      </c>
+      <c r="I24">
+        <v>0.9921721339540672</v>
+      </c>
+      <c r="J24">
+        <v>0.9778762920013906</v>
+      </c>
+      <c r="K24">
+        <v>0.9921721339540672</v>
+      </c>
+      <c r="L24">
+        <v>0.9720640083857234</v>
+      </c>
+      <c r="M24">
+        <v>1.052473765395493</v>
+      </c>
+      <c r="N24">
+        <v>1.052473765395493</v>
+      </c>
+      <c r="O24">
+        <v>1.042601036808131</v>
+      </c>
+      <c r="P24">
+        <v>1.032373221581685</v>
+      </c>
+      <c r="Q24">
+        <v>1.032373221581685</v>
+      </c>
+      <c r="R24">
+        <v>1.02232294967478</v>
+      </c>
+      <c r="S24">
+        <v>1.02232294967478</v>
+      </c>
+      <c r="T24">
+        <v>1.019242721291144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.5654025488893787</v>
+      </c>
+      <c r="D25">
+        <v>0.9386850002951601</v>
+      </c>
+      <c r="E25">
+        <v>1.431682767598449</v>
+      </c>
+      <c r="F25">
+        <v>0.5654025488893787</v>
+      </c>
+      <c r="G25">
+        <v>0.8041469115711039</v>
+      </c>
+      <c r="H25">
+        <v>0.8443249534575094</v>
+      </c>
+      <c r="I25">
+        <v>1.431682767598449</v>
+      </c>
+      <c r="J25">
+        <v>1.082773635283881</v>
+      </c>
+      <c r="K25">
+        <v>1.431682767598449</v>
+      </c>
+      <c r="L25">
+        <v>0.9386850002951601</v>
+      </c>
+      <c r="M25">
+        <v>0.7520437745922695</v>
+      </c>
+      <c r="N25">
+        <v>0.7520437745922695</v>
+      </c>
+      <c r="O25">
+        <v>0.7828041675473494</v>
+      </c>
+      <c r="P25">
+        <v>0.9785901055943294</v>
+      </c>
+      <c r="Q25">
+        <v>0.9785901055943294</v>
+      </c>
+      <c r="R25">
+        <v>1.091863271095359</v>
+      </c>
+      <c r="S25">
+        <v>1.091863271095359</v>
+      </c>
+      <c r="T25">
+        <v>0.9445026361825803</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9773983072535831</v>
+      </c>
+      <c r="D26">
+        <v>1.083564243453992</v>
+      </c>
+      <c r="E26">
+        <v>0.8475354933442915</v>
+      </c>
+      <c r="F26">
+        <v>0.9773983072535831</v>
+      </c>
+      <c r="G26">
+        <v>1.187219224491778</v>
+      </c>
+      <c r="H26">
+        <v>0.9685507675099263</v>
+      </c>
+      <c r="I26">
+        <v>0.8475354933442915</v>
+      </c>
+      <c r="J26">
+        <v>1.014638736786176</v>
+      </c>
+      <c r="K26">
+        <v>0.8475354933442915</v>
+      </c>
+      <c r="L26">
+        <v>1.083564243453992</v>
+      </c>
+      <c r="M26">
+        <v>1.030481275353788</v>
+      </c>
+      <c r="N26">
+        <v>1.030481275353788</v>
+      </c>
+      <c r="O26">
+        <v>1.009837772739167</v>
+      </c>
+      <c r="P26">
+        <v>0.9694993480172888</v>
+      </c>
+      <c r="Q26">
+        <v>0.9694993480172888</v>
+      </c>
+      <c r="R26">
+        <v>0.9390083843490394</v>
+      </c>
+      <c r="S26">
+        <v>0.9390083843490394</v>
+      </c>
+      <c r="T26">
+        <v>1.013151128806624</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9321378677174357</v>
+      </c>
+      <c r="D27">
+        <v>1.014211778254567</v>
+      </c>
+      <c r="E27">
+        <v>1.032134905437506</v>
+      </c>
+      <c r="F27">
+        <v>0.9321378677174357</v>
+      </c>
+      <c r="G27">
+        <v>1.029418055719235</v>
+      </c>
+      <c r="H27">
+        <v>0.9582202224929803</v>
+      </c>
+      <c r="I27">
+        <v>1.032134905437506</v>
+      </c>
+      <c r="J27">
+        <v>1.019659761683786</v>
+      </c>
+      <c r="K27">
+        <v>1.032134905437506</v>
+      </c>
+      <c r="L27">
+        <v>1.014211778254567</v>
+      </c>
+      <c r="M27">
+        <v>0.9731748229860012</v>
+      </c>
+      <c r="N27">
+        <v>0.9731748229860012</v>
+      </c>
+      <c r="O27">
+        <v>0.9681899561549944</v>
+      </c>
+      <c r="P27">
+        <v>0.9928281838031697</v>
+      </c>
+      <c r="Q27">
+        <v>0.9928281838031697</v>
+      </c>
+      <c r="R27">
+        <v>1.002654864211754</v>
+      </c>
+      <c r="S27">
+        <v>1.002654864211754</v>
+      </c>
+      <c r="T27">
+        <v>0.9976304318842518</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9428900556172347</v>
+      </c>
+      <c r="D28">
+        <v>1.003871469860566</v>
+      </c>
+      <c r="E28">
+        <v>1.035579538863016</v>
+      </c>
+      <c r="F28">
+        <v>0.9428900556172347</v>
+      </c>
+      <c r="G28">
+        <v>0.9752590264351482</v>
+      </c>
+      <c r="H28">
+        <v>0.9805797367596244</v>
+      </c>
+      <c r="I28">
+        <v>1.035579538863016</v>
+      </c>
+      <c r="J28">
+        <v>1.012896472159153</v>
+      </c>
+      <c r="K28">
+        <v>1.035579538863016</v>
+      </c>
+      <c r="L28">
+        <v>1.003871469860566</v>
+      </c>
+      <c r="M28">
+        <v>0.9733807627389002</v>
+      </c>
+      <c r="N28">
+        <v>0.9733807627389002</v>
+      </c>
+      <c r="O28">
+        <v>0.9757804207458083</v>
+      </c>
+      <c r="P28">
+        <v>0.9941136881136057</v>
+      </c>
+      <c r="Q28">
+        <v>0.9941136881136057</v>
+      </c>
+      <c r="R28">
+        <v>1.004480150800958</v>
+      </c>
+      <c r="S28">
+        <v>1.004480150800958</v>
+      </c>
+      <c r="T28">
+        <v>0.9918460499491237</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.225991325718878</v>
+      </c>
+      <c r="D29">
+        <v>0.891220051139653</v>
+      </c>
+      <c r="E29">
+        <v>1.090861425789766</v>
+      </c>
+      <c r="F29">
+        <v>1.225991325718878</v>
+      </c>
+      <c r="G29">
+        <v>0.8079582822278553</v>
+      </c>
+      <c r="H29">
+        <v>1.090059300314923</v>
+      </c>
+      <c r="I29">
+        <v>1.090861425789766</v>
+      </c>
+      <c r="J29">
+        <v>0.948570652038691</v>
+      </c>
+      <c r="K29">
+        <v>1.090861425789766</v>
+      </c>
+      <c r="L29">
+        <v>0.891220051139653</v>
+      </c>
+      <c r="M29">
+        <v>1.058605688429265</v>
+      </c>
+      <c r="N29">
+        <v>1.058605688429265</v>
+      </c>
+      <c r="O29">
+        <v>1.069090225724485</v>
+      </c>
+      <c r="P29">
+        <v>1.069357600882766</v>
+      </c>
+      <c r="Q29">
+        <v>1.069357600882766</v>
+      </c>
+      <c r="R29">
+        <v>1.074733557109516</v>
+      </c>
+      <c r="S29">
+        <v>1.074733557109516</v>
+      </c>
+      <c r="T29">
+        <v>1.009110172871628</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW20.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8602750617692668</v>
+        <v>0.8660103850347735</v>
       </c>
       <c r="D4">
-        <v>1.06192191283629</v>
+        <v>1.058440605292092</v>
       </c>
       <c r="E4">
-        <v>0.9872595125146306</v>
+        <v>0.9880672398188616</v>
       </c>
       <c r="F4">
-        <v>0.8602750617692668</v>
+        <v>0.8660103850347735</v>
       </c>
       <c r="G4">
-        <v>1.191930620615047</v>
+        <v>1.170666671572812</v>
       </c>
       <c r="H4">
-        <v>0.9022224466072812</v>
+        <v>0.9102742621874649</v>
       </c>
       <c r="I4">
-        <v>0.9872595125146306</v>
+        <v>0.9880672398188616</v>
       </c>
       <c r="J4">
-        <v>1.040035762706007</v>
+        <v>1.037851900072197</v>
       </c>
       <c r="K4">
-        <v>0.9872595125146306</v>
+        <v>0.9880672398188616</v>
       </c>
       <c r="L4">
-        <v>1.06192191283629</v>
+        <v>1.058440605292092</v>
       </c>
       <c r="M4">
-        <v>0.9610984873027786</v>
+        <v>0.9622254951634328</v>
       </c>
       <c r="N4">
-        <v>0.9610984873027786</v>
+        <v>0.9622254951634328</v>
       </c>
       <c r="O4">
-        <v>0.9414731404042795</v>
+        <v>0.9449084175047768</v>
       </c>
       <c r="P4">
-        <v>0.9698188290400626</v>
+        <v>0.9708394100485758</v>
       </c>
       <c r="Q4">
-        <v>0.9698188290400626</v>
+        <v>0.9708394100485758</v>
       </c>
       <c r="R4">
-        <v>0.9741789999087046</v>
+        <v>0.9751463674911472</v>
       </c>
       <c r="S4">
-        <v>0.9741789999087046</v>
+        <v>0.9751463674911472</v>
       </c>
       <c r="T4">
-        <v>1.007274219508087</v>
+        <v>1.005218510663034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.830883265982709</v>
+        <v>0.4122151533541595</v>
       </c>
       <c r="D5">
-        <v>1.067349177817004</v>
+        <v>1.040257759892973</v>
       </c>
       <c r="E5">
-        <v>0.9973786256700308</v>
+        <v>1.363283686408072</v>
       </c>
       <c r="F5">
-        <v>0.830883265982709</v>
+        <v>0.4122151533541595</v>
       </c>
       <c r="G5">
-        <v>1.196132099070604</v>
+        <v>1.049648567953301</v>
       </c>
       <c r="H5">
-        <v>0.8899977069236307</v>
+        <v>0.7285850236334458</v>
       </c>
       <c r="I5">
-        <v>0.9973786256700308</v>
+        <v>1.363283686408072</v>
       </c>
       <c r="J5">
-        <v>1.046816257608068</v>
+        <v>1.133853105714676</v>
       </c>
       <c r="K5">
-        <v>0.9973786256700308</v>
+        <v>1.363283686408072</v>
       </c>
       <c r="L5">
-        <v>1.067349177817004</v>
+        <v>1.040257759892973</v>
       </c>
       <c r="M5">
-        <v>0.9491162218998563</v>
+        <v>0.7262364566235664</v>
       </c>
       <c r="N5">
-        <v>0.9491162218998563</v>
+        <v>0.7262364566235664</v>
       </c>
       <c r="O5">
-        <v>0.9294100502411146</v>
+        <v>0.7270193122935261</v>
       </c>
       <c r="P5">
-        <v>0.9652036898232478</v>
+        <v>0.9385855332184017</v>
       </c>
       <c r="Q5">
-        <v>0.9652036898232478</v>
+        <v>0.9385855332184017</v>
       </c>
       <c r="R5">
-        <v>0.9732474237849436</v>
+        <v>1.044760071515819</v>
       </c>
       <c r="S5">
-        <v>0.9732474237849436</v>
+        <v>1.044760071515819</v>
       </c>
       <c r="T5">
-        <v>1.004759522178674</v>
+        <v>0.9546405494927713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.5098462357577843</v>
+        <v>0.8602750617692668</v>
       </c>
       <c r="D6">
-        <v>1.253225019500203</v>
+        <v>1.06192191283629</v>
       </c>
       <c r="E6">
-        <v>0.8855653395987215</v>
+        <v>0.9872595125146306</v>
       </c>
       <c r="F6">
-        <v>0.5098462357577843</v>
+        <v>0.8602750617692668</v>
       </c>
       <c r="G6">
-        <v>1.763854918700263</v>
+        <v>1.191930620615047</v>
       </c>
       <c r="H6">
-        <v>0.6436167710846297</v>
+        <v>0.9022224466072812</v>
       </c>
       <c r="I6">
-        <v>0.8855653395987215</v>
+        <v>0.9872595125146306</v>
       </c>
       <c r="J6">
-        <v>1.145226446358589</v>
+        <v>1.040035762706007</v>
       </c>
       <c r="K6">
-        <v>0.8855653395987215</v>
+        <v>0.9872595125146306</v>
       </c>
       <c r="L6">
-        <v>1.253225019500203</v>
+        <v>1.06192191283629</v>
       </c>
       <c r="M6">
-        <v>0.8815356276289938</v>
+        <v>0.9610984873027786</v>
       </c>
       <c r="N6">
-        <v>0.8815356276289938</v>
+        <v>0.9610984873027786</v>
       </c>
       <c r="O6">
-        <v>0.8022293421142058</v>
+        <v>0.9414731404042795</v>
       </c>
       <c r="P6">
-        <v>0.8828788649522364</v>
+        <v>0.9698188290400626</v>
       </c>
       <c r="Q6">
-        <v>0.8828788649522363</v>
+        <v>0.9698188290400626</v>
       </c>
       <c r="R6">
-        <v>0.8835504836138577</v>
+        <v>0.9741789999087046</v>
       </c>
       <c r="S6">
-        <v>0.8835504836138577</v>
+        <v>0.9741789999087046</v>
       </c>
       <c r="T6">
-        <v>1.033555788500032</v>
+        <v>1.007274219508087</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9734000954026273</v>
+        <v>0.830883265982709</v>
       </c>
       <c r="D7">
-        <v>1.002751750566703</v>
+        <v>1.067349177817004</v>
       </c>
       <c r="E7">
-        <v>1.014216113628993</v>
+        <v>0.9973786256700308</v>
       </c>
       <c r="F7">
-        <v>0.9734000954026273</v>
+        <v>0.830883265982709</v>
       </c>
       <c r="G7">
-        <v>1.005711708140419</v>
+        <v>1.196132099070604</v>
       </c>
       <c r="H7">
-        <v>0.9873926512717989</v>
+        <v>0.8899977069236307</v>
       </c>
       <c r="I7">
-        <v>1.014216113628993</v>
+        <v>0.9973786256700308</v>
       </c>
       <c r="J7">
-        <v>1.006084590794033</v>
+        <v>1.046816257608068</v>
       </c>
       <c r="K7">
-        <v>1.014216113628993</v>
+        <v>0.9973786256700308</v>
       </c>
       <c r="L7">
-        <v>1.002751750566703</v>
+        <v>1.067349177817004</v>
       </c>
       <c r="M7">
-        <v>0.9880759229846652</v>
+        <v>0.9491162218998563</v>
       </c>
       <c r="N7">
-        <v>0.9880759229846652</v>
+        <v>0.9491162218998563</v>
       </c>
       <c r="O7">
-        <v>0.9878481657470431</v>
+        <v>0.9294100502411146</v>
       </c>
       <c r="P7">
-        <v>0.9967893198661079</v>
+        <v>0.9652036898232478</v>
       </c>
       <c r="Q7">
-        <v>0.9967893198661079</v>
+        <v>0.9652036898232478</v>
       </c>
       <c r="R7">
-        <v>1.001146018306829</v>
+        <v>0.9732474237849436</v>
       </c>
       <c r="S7">
-        <v>1.001146018306829</v>
+        <v>0.9732474237849436</v>
       </c>
       <c r="T7">
-        <v>0.9982594849674292</v>
+        <v>1.004759522178674</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9974867230340878</v>
+        <v>0.5098462357577843</v>
       </c>
       <c r="D8">
-        <v>0.999335279173116</v>
+        <v>1.253225019500203</v>
       </c>
       <c r="E8">
-        <v>1.003227373974132</v>
+        <v>0.8855653395987215</v>
       </c>
       <c r="F8">
-        <v>0.9974867230340878</v>
+        <v>0.5098462357577843</v>
       </c>
       <c r="G8">
-        <v>0.9987137058077364</v>
+        <v>1.763854918700263</v>
       </c>
       <c r="H8">
-        <v>0.9989709214482465</v>
+        <v>0.6436167710846297</v>
       </c>
       <c r="I8">
-        <v>1.003227373974132</v>
+        <v>0.8855653395987215</v>
       </c>
       <c r="J8">
-        <v>1.000476751768108</v>
+        <v>1.145226446358589</v>
       </c>
       <c r="K8">
-        <v>1.003227373974132</v>
+        <v>0.8855653395987215</v>
       </c>
       <c r="L8">
-        <v>0.999335279173116</v>
+        <v>1.253225019500203</v>
       </c>
       <c r="M8">
-        <v>0.9984110011036019</v>
+        <v>0.8815356276289938</v>
       </c>
       <c r="N8">
-        <v>0.9984110011036019</v>
+        <v>0.8815356276289938</v>
       </c>
       <c r="O8">
-        <v>0.9985976412184835</v>
+        <v>0.8022293421142058</v>
       </c>
       <c r="P8">
-        <v>1.000016458727112</v>
+        <v>0.8828788649522364</v>
       </c>
       <c r="Q8">
-        <v>1.000016458727112</v>
+        <v>0.8828788649522363</v>
       </c>
       <c r="R8">
-        <v>1.000819187538867</v>
+        <v>0.8835504836138577</v>
       </c>
       <c r="S8">
-        <v>1.000819187538867</v>
+        <v>0.8835504836138577</v>
       </c>
       <c r="T8">
-        <v>0.9997017925342377</v>
+        <v>1.033555788500032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9558718183080707</v>
+        <v>0.9734000954026273</v>
       </c>
       <c r="D9">
-        <v>1.00518049189032</v>
+        <v>1.002751750566703</v>
       </c>
       <c r="E9">
-        <v>1.022080516986999</v>
+        <v>1.014216113628993</v>
       </c>
       <c r="F9">
-        <v>0.9558718183080707</v>
+        <v>0.9734000954026273</v>
       </c>
       <c r="G9">
-        <v>1.010511115276987</v>
+        <v>1.005711708140419</v>
       </c>
       <c r="H9">
-        <v>0.9792312084819303</v>
+        <v>0.9873926512717989</v>
       </c>
       <c r="I9">
-        <v>1.022080516986999</v>
+        <v>1.014216113628993</v>
       </c>
       <c r="J9">
-        <v>1.010064541849659</v>
+        <v>1.006084590794033</v>
       </c>
       <c r="K9">
-        <v>1.022080516986999</v>
+        <v>1.014216113628993</v>
       </c>
       <c r="L9">
-        <v>1.00518049189032</v>
+        <v>1.002751750566703</v>
       </c>
       <c r="M9">
-        <v>0.9805261550991955</v>
+        <v>0.9880759229846652</v>
       </c>
       <c r="N9">
-        <v>0.9805261550991955</v>
+        <v>0.9880759229846652</v>
       </c>
       <c r="O9">
-        <v>0.9800945062267737</v>
+        <v>0.9878481657470431</v>
       </c>
       <c r="P9">
-        <v>0.9943776090617966</v>
+        <v>0.9967893198661079</v>
       </c>
       <c r="Q9">
-        <v>0.9943776090617966</v>
+        <v>0.9967893198661079</v>
       </c>
       <c r="R9">
-        <v>1.001303336043097</v>
+        <v>1.001146018306829</v>
       </c>
       <c r="S9">
-        <v>1.001303336043097</v>
+        <v>1.001146018306829</v>
       </c>
       <c r="T9">
-        <v>0.997156615465661</v>
+        <v>0.9982594849674292</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.50563293775109</v>
+        <v>0.9974867230340878</v>
       </c>
       <c r="D10">
-        <v>1.258378130370993</v>
+        <v>0.999335279173116</v>
       </c>
       <c r="E10">
-        <v>0.879344388721308</v>
+        <v>1.003227373974132</v>
       </c>
       <c r="F10">
-        <v>0.50563293775109</v>
+        <v>0.9974867230340878</v>
       </c>
       <c r="G10">
-        <v>1.78036091168546</v>
+        <v>0.9987137058077364</v>
       </c>
       <c r="H10">
-        <v>0.6384490814895213</v>
+        <v>0.9989709214482465</v>
       </c>
       <c r="I10">
-        <v>0.879344388721308</v>
+        <v>1.003227373974132</v>
       </c>
       <c r="J10">
-        <v>1.147047505452614</v>
+        <v>1.000476751768108</v>
       </c>
       <c r="K10">
-        <v>0.879344388721308</v>
+        <v>1.003227373974132</v>
       </c>
       <c r="L10">
-        <v>1.258378130370993</v>
+        <v>0.999335279173116</v>
       </c>
       <c r="M10">
-        <v>0.8820055340610413</v>
+        <v>0.9984110011036019</v>
       </c>
       <c r="N10">
-        <v>0.8820055340610413</v>
+        <v>0.9984110011036019</v>
       </c>
       <c r="O10">
-        <v>0.8008200498705347</v>
+        <v>0.9985976412184835</v>
       </c>
       <c r="P10">
-        <v>0.8811184856144636</v>
+        <v>1.000016458727112</v>
       </c>
       <c r="Q10">
-        <v>0.8811184856144636</v>
+        <v>1.000016458727112</v>
       </c>
       <c r="R10">
-        <v>0.8806749613911747</v>
+        <v>1.000819187538867</v>
       </c>
       <c r="S10">
-        <v>0.8806749613911747</v>
+        <v>1.000819187538867</v>
       </c>
       <c r="T10">
-        <v>1.034868825911831</v>
+        <v>0.9997017925342377</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8334062936899965</v>
+        <v>0.9558718183080707</v>
       </c>
       <c r="D11">
-        <v>1.059297141875182</v>
+        <v>1.00518049189032</v>
       </c>
       <c r="E11">
-        <v>1.009735801461393</v>
+        <v>1.022080516986999</v>
       </c>
       <c r="F11">
-        <v>0.8334062936899965</v>
+        <v>0.9558718183080707</v>
       </c>
       <c r="G11">
-        <v>1.176286203881333</v>
+        <v>1.010511115276987</v>
       </c>
       <c r="H11">
-        <v>0.8950346221032158</v>
+        <v>0.9792312084819303</v>
       </c>
       <c r="I11">
-        <v>1.009735801461393</v>
+        <v>1.022080516986999</v>
       </c>
       <c r="J11">
-        <v>1.044823088915561</v>
+        <v>1.010064541849659</v>
       </c>
       <c r="K11">
-        <v>1.009735801461393</v>
+        <v>1.022080516986999</v>
       </c>
       <c r="L11">
-        <v>1.059297141875182</v>
+        <v>1.00518049189032</v>
       </c>
       <c r="M11">
-        <v>0.9463517177825893</v>
+        <v>0.9805261550991955</v>
       </c>
       <c r="N11">
-        <v>0.9463517177825893</v>
+        <v>0.9805261550991955</v>
       </c>
       <c r="O11">
-        <v>0.9292460192227981</v>
+        <v>0.9800945062267737</v>
       </c>
       <c r="P11">
-        <v>0.967479745675524</v>
+        <v>0.9943776090617966</v>
       </c>
       <c r="Q11">
-        <v>0.967479745675524</v>
+        <v>0.9943776090617966</v>
       </c>
       <c r="R11">
-        <v>0.9780437596219913</v>
+        <v>1.001303336043097</v>
       </c>
       <c r="S11">
-        <v>0.9780437596219913</v>
+        <v>1.001303336043097</v>
       </c>
       <c r="T11">
-        <v>1.00309719198778</v>
+        <v>0.997156615465661</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8466381731894742</v>
+        <v>0.50563293775109</v>
       </c>
       <c r="D12">
-        <v>1.078708505694736</v>
+        <v>1.258378130370993</v>
       </c>
       <c r="E12">
-        <v>0.9659436718526322</v>
+        <v>0.879344388721308</v>
       </c>
       <c r="F12">
-        <v>0.8466381731894742</v>
+        <v>0.50563293775109</v>
       </c>
       <c r="G12">
-        <v>1.235750075768423</v>
+        <v>1.78036091168546</v>
       </c>
       <c r="H12">
-        <v>0.88850140811579</v>
+        <v>0.6384490814895213</v>
       </c>
       <c r="I12">
-        <v>0.9659436718526322</v>
+        <v>0.879344388721308</v>
       </c>
       <c r="J12">
-        <v>1.045655888442107</v>
+        <v>1.147047505452614</v>
       </c>
       <c r="K12">
-        <v>0.9659436718526322</v>
+        <v>0.879344388721308</v>
       </c>
       <c r="L12">
-        <v>1.078708505694736</v>
+        <v>1.258378130370993</v>
       </c>
       <c r="M12">
-        <v>0.962673339442105</v>
+        <v>0.8820055340610413</v>
       </c>
       <c r="N12">
-        <v>0.962673339442105</v>
+        <v>0.8820055340610413</v>
       </c>
       <c r="O12">
-        <v>0.9379493623333334</v>
+        <v>0.8008200498705347</v>
       </c>
       <c r="P12">
-        <v>0.9637634502456139</v>
+        <v>0.8811184856144636</v>
       </c>
       <c r="Q12">
-        <v>0.9637634502456139</v>
+        <v>0.8811184856144636</v>
       </c>
       <c r="R12">
-        <v>0.9643085056473686</v>
+        <v>0.8806749613911747</v>
       </c>
       <c r="S12">
-        <v>0.9643085056473686</v>
+        <v>0.8806749613911747</v>
       </c>
       <c r="T12">
-        <v>1.010199620510527</v>
+        <v>1.034868825911831</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.132193690740872</v>
+        <v>0.8334062936899965</v>
       </c>
       <c r="D13">
-        <v>0.9633449819361949</v>
+        <v>1.059297141875182</v>
       </c>
       <c r="E13">
-        <v>0.9753668615980908</v>
+        <v>1.009735801461393</v>
       </c>
       <c r="F13">
-        <v>1.132193690740872</v>
+        <v>0.8334062936899965</v>
       </c>
       <c r="G13">
-        <v>0.9041848668552926</v>
+        <v>1.176286203881333</v>
       </c>
       <c r="H13">
-        <v>1.072703808370856</v>
+        <v>0.8950346221032158</v>
       </c>
       <c r="I13">
-        <v>0.9753668615980908</v>
+        <v>1.009735801461393</v>
       </c>
       <c r="J13">
-        <v>0.9668544029468399</v>
+        <v>1.044823088915561</v>
       </c>
       <c r="K13">
-        <v>0.9753668615980908</v>
+        <v>1.009735801461393</v>
       </c>
       <c r="L13">
-        <v>0.9633449819361949</v>
+        <v>1.059297141875182</v>
       </c>
       <c r="M13">
-        <v>1.047769336338533</v>
+        <v>0.9463517177825893</v>
       </c>
       <c r="N13">
-        <v>1.047769336338533</v>
+        <v>0.9463517177825893</v>
       </c>
       <c r="O13">
-        <v>1.056080827015974</v>
+        <v>0.9292460192227981</v>
       </c>
       <c r="P13">
-        <v>1.023635178091719</v>
+        <v>0.967479745675524</v>
       </c>
       <c r="Q13">
-        <v>1.023635178091719</v>
+        <v>0.967479745675524</v>
       </c>
       <c r="R13">
-        <v>1.011568098968312</v>
+        <v>0.9780437596219913</v>
       </c>
       <c r="S13">
-        <v>1.011568098968312</v>
+        <v>0.9780437596219913</v>
       </c>
       <c r="T13">
-        <v>1.002441435408024</v>
+        <v>1.00309719198778</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1528199099999999</v>
+        <v>0.8466381731894742</v>
       </c>
       <c r="D14">
-        <v>1.449755100000001</v>
+        <v>1.078708505694736</v>
       </c>
       <c r="E14">
-        <v>0.7801649100000014</v>
+        <v>0.9659436718526322</v>
       </c>
       <c r="F14">
-        <v>0.1528199099999999</v>
+        <v>0.8466381731894742</v>
       </c>
       <c r="G14">
-        <v>2.3616691</v>
+        <v>1.235750075768423</v>
       </c>
       <c r="H14">
-        <v>0.3759523199999998</v>
+        <v>0.88850140811579</v>
       </c>
       <c r="I14">
-        <v>0.7801649100000014</v>
+        <v>0.9659436718526322</v>
       </c>
       <c r="J14">
-        <v>1.252999299999999</v>
+        <v>1.045655888442107</v>
       </c>
       <c r="K14">
-        <v>0.7801649100000014</v>
+        <v>0.9659436718526322</v>
       </c>
       <c r="L14">
-        <v>1.449755100000001</v>
+        <v>1.078708505694736</v>
       </c>
       <c r="M14">
-        <v>0.8012875050000005</v>
+        <v>0.962673339442105</v>
       </c>
       <c r="N14">
-        <v>0.8012875050000005</v>
+        <v>0.962673339442105</v>
       </c>
       <c r="O14">
-        <v>0.6595091100000002</v>
+        <v>0.9379493623333334</v>
       </c>
       <c r="P14">
-        <v>0.7942466400000008</v>
+        <v>0.9637634502456139</v>
       </c>
       <c r="Q14">
-        <v>0.7942466400000008</v>
+        <v>0.9637634502456139</v>
       </c>
       <c r="R14">
-        <v>0.790726207500001</v>
+        <v>0.9643085056473686</v>
       </c>
       <c r="S14">
-        <v>0.790726207500001</v>
+        <v>0.9643085056473686</v>
       </c>
       <c r="T14">
-        <v>1.062226773333333</v>
+        <v>1.010199620510527</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.21885897</v>
+        <v>1.132193690740872</v>
       </c>
       <c r="D15">
-        <v>0.8289786500000002</v>
+        <v>0.9633449819361949</v>
       </c>
       <c r="E15">
-        <v>1.9813918</v>
+        <v>0.9753668615980908</v>
       </c>
       <c r="F15">
-        <v>0.21885897</v>
+        <v>1.132193690740872</v>
       </c>
       <c r="G15">
-        <v>0.66920919</v>
+        <v>0.9041848668552926</v>
       </c>
       <c r="H15">
-        <v>0.6454245799999999</v>
+        <v>1.072703808370856</v>
       </c>
       <c r="I15">
-        <v>1.9813918</v>
+        <v>0.9753668615980908</v>
       </c>
       <c r="J15">
-        <v>1.1585466</v>
+        <v>0.9668544029468399</v>
       </c>
       <c r="K15">
-        <v>1.9813918</v>
+        <v>0.9753668615980908</v>
       </c>
       <c r="L15">
-        <v>0.8289786500000002</v>
+        <v>0.9633449819361949</v>
       </c>
       <c r="M15">
-        <v>0.5239188100000001</v>
+        <v>1.047769336338533</v>
       </c>
       <c r="N15">
-        <v>0.5239188100000001</v>
+        <v>1.047769336338533</v>
       </c>
       <c r="O15">
-        <v>0.5644207333333333</v>
+        <v>1.056080827015974</v>
       </c>
       <c r="P15">
-        <v>1.00974314</v>
+        <v>1.023635178091719</v>
       </c>
       <c r="Q15">
-        <v>1.00974314</v>
+        <v>1.023635178091719</v>
       </c>
       <c r="R15">
-        <v>1.252655305</v>
+        <v>1.011568098968312</v>
       </c>
       <c r="S15">
-        <v>1.252655305</v>
+        <v>1.011568098968312</v>
       </c>
       <c r="T15">
-        <v>0.9170682983333333</v>
+        <v>1.002441435408024</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.097009683</v>
+        <v>0.1528199099999999</v>
       </c>
       <c r="D16">
-        <v>1.4922976</v>
+        <v>1.449755100000001</v>
       </c>
       <c r="E16">
-        <v>0.7368620299999999</v>
+        <v>0.7801649100000014</v>
       </c>
       <c r="F16">
-        <v>0.097009683</v>
+        <v>0.1528199099999999</v>
       </c>
       <c r="G16">
-        <v>2.6440436</v>
+        <v>2.3616691</v>
       </c>
       <c r="H16">
-        <v>0.29618032</v>
+        <v>0.3759523199999998</v>
       </c>
       <c r="I16">
-        <v>0.7368620299999999</v>
+        <v>0.7801649100000014</v>
       </c>
       <c r="J16">
-        <v>1.2695783</v>
+        <v>1.252999299999999</v>
       </c>
       <c r="K16">
-        <v>0.7368620299999999</v>
+        <v>0.7801649100000014</v>
       </c>
       <c r="L16">
-        <v>1.4922976</v>
+        <v>1.449755100000001</v>
       </c>
       <c r="M16">
-        <v>0.7946536415</v>
+        <v>0.8012875050000005</v>
       </c>
       <c r="N16">
-        <v>0.7946536415</v>
+        <v>0.8012875050000005</v>
       </c>
       <c r="O16">
-        <v>0.6284958676666667</v>
+        <v>0.6595091100000002</v>
       </c>
       <c r="P16">
-        <v>0.7753897709999999</v>
+        <v>0.7942466400000008</v>
       </c>
       <c r="Q16">
-        <v>0.7753897709999999</v>
+        <v>0.7942466400000008</v>
       </c>
       <c r="R16">
-        <v>0.7657578357499999</v>
+        <v>0.790726207500001</v>
       </c>
       <c r="S16">
-        <v>0.7657578357499999</v>
+        <v>0.790726207500001</v>
       </c>
       <c r="T16">
-        <v>1.089328588833333</v>
+        <v>1.062226773333333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.3016633</v>
+        <v>0.21885897</v>
       </c>
       <c r="D17">
-        <v>0.90659849</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="E17">
-        <v>0.99082288</v>
+        <v>1.9813918</v>
       </c>
       <c r="F17">
-        <v>1.3016633</v>
+        <v>0.21885897</v>
       </c>
       <c r="G17">
-        <v>0.78853831</v>
+        <v>0.66920919</v>
       </c>
       <c r="H17">
-        <v>1.1395353</v>
+        <v>0.6454245799999999</v>
       </c>
       <c r="I17">
-        <v>0.99082288</v>
+        <v>1.9813918</v>
       </c>
       <c r="J17">
-        <v>0.93232084</v>
+        <v>1.1585466</v>
       </c>
       <c r="K17">
-        <v>0.99082288</v>
+        <v>1.9813918</v>
       </c>
       <c r="L17">
-        <v>0.90659849</v>
+        <v>0.8289786500000002</v>
       </c>
       <c r="M17">
-        <v>1.104130895</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="N17">
-        <v>1.104130895</v>
+        <v>0.5239188100000001</v>
       </c>
       <c r="O17">
-        <v>1.115932363333333</v>
+        <v>0.5644207333333333</v>
       </c>
       <c r="P17">
-        <v>1.066361556666667</v>
+        <v>1.00974314</v>
       </c>
       <c r="Q17">
-        <v>1.066361556666667</v>
+        <v>1.00974314</v>
       </c>
       <c r="R17">
-        <v>1.0474768875</v>
+        <v>1.252655305</v>
       </c>
       <c r="S17">
-        <v>1.0474768875</v>
+        <v>1.252655305</v>
       </c>
       <c r="T17">
-        <v>1.009913186666667</v>
+        <v>0.9170682983333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.4620421869041096</v>
+        <v>0.097009683</v>
       </c>
       <c r="D18">
-        <v>1.055938477671233</v>
+        <v>1.4922976</v>
       </c>
       <c r="E18">
-        <v>1.28311707369863</v>
+        <v>0.7368620299999999</v>
       </c>
       <c r="F18">
-        <v>0.4620421869041096</v>
+        <v>0.097009683</v>
       </c>
       <c r="G18">
-        <v>1.107934592465754</v>
+        <v>2.6440436</v>
       </c>
       <c r="H18">
-        <v>0.7499914676712334</v>
+        <v>0.29618032</v>
       </c>
       <c r="I18">
-        <v>1.28311707369863</v>
+        <v>0.7368620299999999</v>
       </c>
       <c r="J18">
-        <v>1.121740810958904</v>
+        <v>1.2695783</v>
       </c>
       <c r="K18">
-        <v>1.28311707369863</v>
+        <v>0.7368620299999999</v>
       </c>
       <c r="L18">
-        <v>1.055938477671233</v>
+        <v>1.4922976</v>
       </c>
       <c r="M18">
-        <v>0.7589903322876713</v>
+        <v>0.7946536415</v>
       </c>
       <c r="N18">
-        <v>0.7589903322876713</v>
+        <v>0.7946536415</v>
       </c>
       <c r="O18">
-        <v>0.7559907107488586</v>
+        <v>0.6284958676666667</v>
       </c>
       <c r="P18">
-        <v>0.9336992460913242</v>
+        <v>0.7753897709999999</v>
       </c>
       <c r="Q18">
-        <v>0.9336992460913242</v>
+        <v>0.7753897709999999</v>
       </c>
       <c r="R18">
-        <v>1.021053702993151</v>
+        <v>0.7657578357499999</v>
       </c>
       <c r="S18">
-        <v>1.021053702993151</v>
+        <v>0.7657578357499999</v>
       </c>
       <c r="T18">
-        <v>0.9634607682283107</v>
+        <v>1.089328588833333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9405904054210528</v>
+        <v>1.3016633</v>
       </c>
       <c r="D19">
-        <v>1.118801489473684</v>
+        <v>0.90659849</v>
       </c>
       <c r="E19">
-        <v>0.8607322221052631</v>
+        <v>0.99082288</v>
       </c>
       <c r="F19">
-        <v>0.9405904054210528</v>
+        <v>1.3016633</v>
       </c>
       <c r="G19">
-        <v>1.459280826842105</v>
+        <v>0.78853831</v>
       </c>
       <c r="H19">
-        <v>0.856683262631579</v>
+        <v>1.1395353</v>
       </c>
       <c r="I19">
-        <v>0.8607322221052631</v>
+        <v>0.99082288</v>
       </c>
       <c r="J19">
-        <v>1.042086518947368</v>
+        <v>0.93232084</v>
       </c>
       <c r="K19">
-        <v>0.8607322221052631</v>
+        <v>0.99082288</v>
       </c>
       <c r="L19">
-        <v>1.118801489473684</v>
+        <v>0.90659849</v>
       </c>
       <c r="M19">
-        <v>1.029695947447368</v>
+        <v>1.104130895</v>
       </c>
       <c r="N19">
-        <v>1.029695947447368</v>
+        <v>1.104130895</v>
       </c>
       <c r="O19">
-        <v>0.9720250525087719</v>
+        <v>1.115932363333333</v>
       </c>
       <c r="P19">
-        <v>0.9733747056666666</v>
+        <v>1.066361556666667</v>
       </c>
       <c r="Q19">
-        <v>0.9733747056666667</v>
+        <v>1.066361556666667</v>
       </c>
       <c r="R19">
-        <v>0.9452140847763159</v>
+        <v>1.0474768875</v>
       </c>
       <c r="S19">
-        <v>0.9452140847763159</v>
+        <v>1.0474768875</v>
       </c>
       <c r="T19">
-        <v>1.046362454236842</v>
+        <v>1.009913186666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.3887757631578947</v>
+        <v>0.4620421869041096</v>
       </c>
       <c r="D20">
-        <v>1.064516404736842</v>
+        <v>1.055938477671233</v>
       </c>
       <c r="E20">
-        <v>1.336624538947369</v>
+        <v>1.28311707369863</v>
       </c>
       <c r="F20">
-        <v>0.3887757631578947</v>
+        <v>0.4620421869041096</v>
       </c>
       <c r="G20">
-        <v>1.134258288947368</v>
+        <v>1.107934592465754</v>
       </c>
       <c r="H20">
-        <v>0.7011466047368421</v>
+        <v>0.7499914676712334</v>
       </c>
       <c r="I20">
-        <v>1.336624538947369</v>
+        <v>1.28311707369863</v>
       </c>
       <c r="J20">
-        <v>1.143109857894737</v>
+        <v>1.121740810958904</v>
       </c>
       <c r="K20">
-        <v>1.336624538947369</v>
+        <v>1.28311707369863</v>
       </c>
       <c r="L20">
-        <v>1.064516404736842</v>
+        <v>1.055938477671233</v>
       </c>
       <c r="M20">
-        <v>0.7266460839473684</v>
+        <v>0.7589903322876713</v>
       </c>
       <c r="N20">
-        <v>0.7266460839473684</v>
+        <v>0.7589903322876713</v>
       </c>
       <c r="O20">
-        <v>0.7181462575438596</v>
+        <v>0.7559907107488586</v>
       </c>
       <c r="P20">
-        <v>0.9299722356140352</v>
+        <v>0.9336992460913242</v>
       </c>
       <c r="Q20">
-        <v>0.9299722356140352</v>
+        <v>0.9336992460913242</v>
       </c>
       <c r="R20">
-        <v>1.031635311447369</v>
+        <v>1.021053702993151</v>
       </c>
       <c r="S20">
-        <v>1.031635311447369</v>
+        <v>1.021053702993151</v>
       </c>
       <c r="T20">
-        <v>0.9614052430701756</v>
+        <v>0.9634607682283107</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.549115821502245</v>
+        <v>0.9405904054210528</v>
       </c>
       <c r="D21">
-        <v>0.8585598533017926</v>
+        <v>1.118801489473684</v>
       </c>
       <c r="E21">
-        <v>0.9080126208316811</v>
+        <v>0.8607322221052631</v>
       </c>
       <c r="F21">
-        <v>1.549115821502245</v>
+        <v>0.9405904054210528</v>
       </c>
       <c r="G21">
-        <v>0.7087614410486681</v>
+        <v>1.459280826842105</v>
       </c>
       <c r="H21">
-        <v>1.256056155235608</v>
+        <v>0.856683262631579</v>
       </c>
       <c r="I21">
-        <v>0.9080126208316811</v>
+        <v>0.8607322221052631</v>
       </c>
       <c r="J21">
-        <v>0.8728869136595593</v>
+        <v>1.042086518947368</v>
       </c>
       <c r="K21">
-        <v>0.9080126208316811</v>
+        <v>0.8607322221052631</v>
       </c>
       <c r="L21">
-        <v>0.8585598533017926</v>
+        <v>1.118801489473684</v>
       </c>
       <c r="M21">
-        <v>1.203837837402019</v>
+        <v>1.029695947447368</v>
       </c>
       <c r="N21">
-        <v>1.203837837402019</v>
+        <v>1.029695947447368</v>
       </c>
       <c r="O21">
-        <v>1.221243943346549</v>
+        <v>0.9720250525087719</v>
       </c>
       <c r="P21">
-        <v>1.105229431878573</v>
+        <v>0.9733747056666666</v>
       </c>
       <c r="Q21">
-        <v>1.105229431878573</v>
+        <v>0.9733747056666667</v>
       </c>
       <c r="R21">
-        <v>1.05592522911685</v>
+        <v>0.9452140847763159</v>
       </c>
       <c r="S21">
-        <v>1.05592522911685</v>
+        <v>0.9452140847763159</v>
       </c>
       <c r="T21">
-        <v>1.025565467596592</v>
+        <v>1.046362454236842</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.042385046805335</v>
+        <v>0.3887757631578947</v>
       </c>
       <c r="D22">
-        <v>0.9969324457096592</v>
+        <v>1.064516404736842</v>
       </c>
       <c r="E22">
-        <v>0.9249399639844021</v>
+        <v>1.336624538947369</v>
       </c>
       <c r="F22">
-        <v>1.042385046805335</v>
+        <v>0.3887757631578947</v>
       </c>
       <c r="G22">
-        <v>0.8961665861003301</v>
+        <v>1.134258288947368</v>
       </c>
       <c r="H22">
-        <v>1.079648388150934</v>
+        <v>0.7011466047368421</v>
       </c>
       <c r="I22">
-        <v>0.9249399639844021</v>
+        <v>1.336624538947369</v>
       </c>
       <c r="J22">
-        <v>0.9759547582133786</v>
+        <v>1.143109857894737</v>
       </c>
       <c r="K22">
-        <v>0.9249399639844021</v>
+        <v>1.336624538947369</v>
       </c>
       <c r="L22">
-        <v>0.9969324457096592</v>
+        <v>1.064516404736842</v>
       </c>
       <c r="M22">
-        <v>1.019658746257497</v>
+        <v>0.7266460839473684</v>
       </c>
       <c r="N22">
-        <v>1.019658746257497</v>
+        <v>0.7266460839473684</v>
       </c>
       <c r="O22">
-        <v>1.039655293555309</v>
+        <v>0.7181462575438596</v>
       </c>
       <c r="P22">
-        <v>0.988085818833132</v>
+        <v>0.9299722356140352</v>
       </c>
       <c r="Q22">
-        <v>0.988085818833132</v>
+        <v>0.9299722356140352</v>
       </c>
       <c r="R22">
-        <v>0.9722993551209496</v>
+        <v>1.031635311447369</v>
       </c>
       <c r="S22">
-        <v>0.9722993551209496</v>
+        <v>1.031635311447369</v>
       </c>
       <c r="T22">
-        <v>0.9860045314940065</v>
+        <v>0.9614052430701756</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.101626299898492</v>
+        <v>1.549115821502245</v>
       </c>
       <c r="D23">
-        <v>0.9489364297427153</v>
+        <v>0.8585598533017926</v>
       </c>
       <c r="E23">
-        <v>0.9922572471170032</v>
+        <v>0.9080126208316811</v>
       </c>
       <c r="F23">
-        <v>1.101626299898492</v>
+        <v>1.549115821502245</v>
       </c>
       <c r="G23">
-        <v>0.7767753123789009</v>
+        <v>0.7087614410486681</v>
       </c>
       <c r="H23">
-        <v>1.110748655632942</v>
+        <v>1.256056155235608</v>
       </c>
       <c r="I23">
-        <v>0.9922572471170032</v>
+        <v>0.9080126208316811</v>
       </c>
       <c r="J23">
-        <v>0.9616991050101645</v>
+        <v>0.8728869136595593</v>
       </c>
       <c r="K23">
-        <v>0.9922572471170032</v>
+        <v>0.9080126208316811</v>
       </c>
       <c r="L23">
-        <v>0.9489364297427153</v>
+        <v>0.8585598533017926</v>
       </c>
       <c r="M23">
-        <v>1.025281364820604</v>
+        <v>1.203837837402019</v>
       </c>
       <c r="N23">
-        <v>1.025281364820604</v>
+        <v>1.203837837402019</v>
       </c>
       <c r="O23">
-        <v>1.05377046175805</v>
+        <v>1.221243943346549</v>
       </c>
       <c r="P23">
-        <v>1.01427332558607</v>
+        <v>1.105229431878573</v>
       </c>
       <c r="Q23">
-        <v>1.014273325586071</v>
+        <v>1.105229431878573</v>
       </c>
       <c r="R23">
-        <v>1.008769305968804</v>
+        <v>1.05592522911685</v>
       </c>
       <c r="S23">
-        <v>1.008769305968804</v>
+        <v>1.05592522911685</v>
       </c>
       <c r="T23">
-        <v>0.9820071749633698</v>
+        <v>1.025565467596592</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.132883522405263</v>
+        <v>1.042385046805335</v>
       </c>
       <c r="D24">
-        <v>0.9720640083857234</v>
+        <v>0.9969324457096592</v>
       </c>
       <c r="E24">
-        <v>0.9921721339540672</v>
+        <v>0.9249399639844021</v>
       </c>
       <c r="F24">
-        <v>1.132883522405263</v>
+        <v>1.042385046805335</v>
       </c>
       <c r="G24">
-        <v>1.017604791367014</v>
+        <v>0.8961665861003301</v>
       </c>
       <c r="H24">
-        <v>1.022855579633406</v>
+        <v>1.079648388150934</v>
       </c>
       <c r="I24">
-        <v>0.9921721339540672</v>
+        <v>0.9249399639844021</v>
       </c>
       <c r="J24">
-        <v>0.9778762920013906</v>
+        <v>0.9759547582133786</v>
       </c>
       <c r="K24">
-        <v>0.9921721339540672</v>
+        <v>0.9249399639844021</v>
       </c>
       <c r="L24">
-        <v>0.9720640083857234</v>
+        <v>0.9969324457096592</v>
       </c>
       <c r="M24">
-        <v>1.052473765395493</v>
+        <v>1.019658746257497</v>
       </c>
       <c r="N24">
-        <v>1.052473765395493</v>
+        <v>1.019658746257497</v>
       </c>
       <c r="O24">
-        <v>1.042601036808131</v>
+        <v>1.039655293555309</v>
       </c>
       <c r="P24">
-        <v>1.032373221581685</v>
+        <v>0.988085818833132</v>
       </c>
       <c r="Q24">
-        <v>1.032373221581685</v>
+        <v>0.988085818833132</v>
       </c>
       <c r="R24">
-        <v>1.02232294967478</v>
+        <v>0.9722993551209496</v>
       </c>
       <c r="S24">
-        <v>1.02232294967478</v>
+        <v>0.9722993551209496</v>
       </c>
       <c r="T24">
-        <v>1.019242721291144</v>
+        <v>0.9860045314940065</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.5654025488893787</v>
+        <v>1.101626299898492</v>
       </c>
       <c r="D25">
-        <v>0.9386850002951601</v>
+        <v>0.9489364297427153</v>
       </c>
       <c r="E25">
-        <v>1.431682767598449</v>
+        <v>0.9922572471170032</v>
       </c>
       <c r="F25">
-        <v>0.5654025488893787</v>
+        <v>1.101626299898492</v>
       </c>
       <c r="G25">
-        <v>0.8041469115711039</v>
+        <v>0.7767753123789009</v>
       </c>
       <c r="H25">
-        <v>0.8443249534575094</v>
+        <v>1.110748655632942</v>
       </c>
       <c r="I25">
-        <v>1.431682767598449</v>
+        <v>0.9922572471170032</v>
       </c>
       <c r="J25">
-        <v>1.082773635283881</v>
+        <v>0.9616991050101645</v>
       </c>
       <c r="K25">
-        <v>1.431682767598449</v>
+        <v>0.9922572471170032</v>
       </c>
       <c r="L25">
-        <v>0.9386850002951601</v>
+        <v>0.9489364297427153</v>
       </c>
       <c r="M25">
-        <v>0.7520437745922695</v>
+        <v>1.025281364820604</v>
       </c>
       <c r="N25">
-        <v>0.7520437745922695</v>
+        <v>1.025281364820604</v>
       </c>
       <c r="O25">
-        <v>0.7828041675473494</v>
+        <v>1.05377046175805</v>
       </c>
       <c r="P25">
-        <v>0.9785901055943294</v>
+        <v>1.01427332558607</v>
       </c>
       <c r="Q25">
-        <v>0.9785901055943294</v>
+        <v>1.014273325586071</v>
       </c>
       <c r="R25">
-        <v>1.091863271095359</v>
+        <v>1.008769305968804</v>
       </c>
       <c r="S25">
-        <v>1.091863271095359</v>
+        <v>1.008769305968804</v>
       </c>
       <c r="T25">
-        <v>0.9445026361825803</v>
+        <v>0.9820071749633698</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9773983072535831</v>
+        <v>1.132883522405263</v>
       </c>
       <c r="D26">
-        <v>1.083564243453992</v>
+        <v>0.9720640083857234</v>
       </c>
       <c r="E26">
-        <v>0.8475354933442915</v>
+        <v>0.9921721339540672</v>
       </c>
       <c r="F26">
-        <v>0.9773983072535831</v>
+        <v>1.132883522405263</v>
       </c>
       <c r="G26">
-        <v>1.187219224491778</v>
+        <v>1.017604791367014</v>
       </c>
       <c r="H26">
-        <v>0.9685507675099263</v>
+        <v>1.022855579633406</v>
       </c>
       <c r="I26">
-        <v>0.8475354933442915</v>
+        <v>0.9921721339540672</v>
       </c>
       <c r="J26">
-        <v>1.014638736786176</v>
+        <v>0.9778762920013906</v>
       </c>
       <c r="K26">
-        <v>0.8475354933442915</v>
+        <v>0.9921721339540672</v>
       </c>
       <c r="L26">
-        <v>1.083564243453992</v>
+        <v>0.9720640083857234</v>
       </c>
       <c r="M26">
-        <v>1.030481275353788</v>
+        <v>1.052473765395493</v>
       </c>
       <c r="N26">
-        <v>1.030481275353788</v>
+        <v>1.052473765395493</v>
       </c>
       <c r="O26">
-        <v>1.009837772739167</v>
+        <v>1.042601036808131</v>
       </c>
       <c r="P26">
-        <v>0.9694993480172888</v>
+        <v>1.032373221581685</v>
       </c>
       <c r="Q26">
-        <v>0.9694993480172888</v>
+        <v>1.032373221581685</v>
       </c>
       <c r="R26">
-        <v>0.9390083843490394</v>
+        <v>1.02232294967478</v>
       </c>
       <c r="S26">
-        <v>0.9390083843490394</v>
+        <v>1.02232294967478</v>
       </c>
       <c r="T26">
-        <v>1.013151128806624</v>
+        <v>1.019242721291144</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9321378677174357</v>
+        <v>0.5654025488893787</v>
       </c>
       <c r="D27">
-        <v>1.014211778254567</v>
+        <v>0.9386850002951601</v>
       </c>
       <c r="E27">
-        <v>1.032134905437506</v>
+        <v>1.431682767598449</v>
       </c>
       <c r="F27">
-        <v>0.9321378677174357</v>
+        <v>0.5654025488893787</v>
       </c>
       <c r="G27">
-        <v>1.029418055719235</v>
+        <v>0.8041469115711039</v>
       </c>
       <c r="H27">
-        <v>0.9582202224929803</v>
+        <v>0.8443249534575094</v>
       </c>
       <c r="I27">
-        <v>1.032134905437506</v>
+        <v>1.431682767598449</v>
       </c>
       <c r="J27">
-        <v>1.019659761683786</v>
+        <v>1.082773635283881</v>
       </c>
       <c r="K27">
-        <v>1.032134905437506</v>
+        <v>1.431682767598449</v>
       </c>
       <c r="L27">
-        <v>1.014211778254567</v>
+        <v>0.9386850002951601</v>
       </c>
       <c r="M27">
-        <v>0.9731748229860012</v>
+        <v>0.7520437745922695</v>
       </c>
       <c r="N27">
-        <v>0.9731748229860012</v>
+        <v>0.7520437745922695</v>
       </c>
       <c r="O27">
-        <v>0.9681899561549944</v>
+        <v>0.7828041675473494</v>
       </c>
       <c r="P27">
-        <v>0.9928281838031697</v>
+        <v>0.9785901055943294</v>
       </c>
       <c r="Q27">
-        <v>0.9928281838031697</v>
+        <v>0.9785901055943294</v>
       </c>
       <c r="R27">
-        <v>1.002654864211754</v>
+        <v>1.091863271095359</v>
       </c>
       <c r="S27">
-        <v>1.002654864211754</v>
+        <v>1.091863271095359</v>
       </c>
       <c r="T27">
-        <v>0.9976304318842518</v>
+        <v>0.9445026361825803</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9428900556172347</v>
+        <v>0.9773983072535831</v>
       </c>
       <c r="D28">
-        <v>1.003871469860566</v>
+        <v>1.083564243453992</v>
       </c>
       <c r="E28">
-        <v>1.035579538863016</v>
+        <v>0.8475354933442915</v>
       </c>
       <c r="F28">
-        <v>0.9428900556172347</v>
+        <v>0.9773983072535831</v>
       </c>
       <c r="G28">
-        <v>0.9752590264351482</v>
+        <v>1.187219224491778</v>
       </c>
       <c r="H28">
-        <v>0.9805797367596244</v>
+        <v>0.9685507675099263</v>
       </c>
       <c r="I28">
-        <v>1.035579538863016</v>
+        <v>0.8475354933442915</v>
       </c>
       <c r="J28">
-        <v>1.012896472159153</v>
+        <v>1.014638736786176</v>
       </c>
       <c r="K28">
-        <v>1.035579538863016</v>
+        <v>0.8475354933442915</v>
       </c>
       <c r="L28">
-        <v>1.003871469860566</v>
+        <v>1.083564243453992</v>
       </c>
       <c r="M28">
-        <v>0.9733807627389002</v>
+        <v>1.030481275353788</v>
       </c>
       <c r="N28">
-        <v>0.9733807627389002</v>
+        <v>1.030481275353788</v>
       </c>
       <c r="O28">
-        <v>0.9757804207458083</v>
+        <v>1.009837772739167</v>
       </c>
       <c r="P28">
-        <v>0.9941136881136057</v>
+        <v>0.9694993480172888</v>
       </c>
       <c r="Q28">
-        <v>0.9941136881136057</v>
+        <v>0.9694993480172888</v>
       </c>
       <c r="R28">
-        <v>1.004480150800958</v>
+        <v>0.9390083843490394</v>
       </c>
       <c r="S28">
-        <v>1.004480150800958</v>
+        <v>0.9390083843490394</v>
       </c>
       <c r="T28">
-        <v>0.9918460499491237</v>
+        <v>1.013151128806624</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9321378677174357</v>
+      </c>
+      <c r="D29">
+        <v>1.014211778254567</v>
+      </c>
+      <c r="E29">
+        <v>1.032134905437506</v>
+      </c>
+      <c r="F29">
+        <v>0.9321378677174357</v>
+      </c>
+      <c r="G29">
+        <v>1.029418055719235</v>
+      </c>
+      <c r="H29">
+        <v>0.9582202224929803</v>
+      </c>
+      <c r="I29">
+        <v>1.032134905437506</v>
+      </c>
+      <c r="J29">
+        <v>1.019659761683786</v>
+      </c>
+      <c r="K29">
+        <v>1.032134905437506</v>
+      </c>
+      <c r="L29">
+        <v>1.014211778254567</v>
+      </c>
+      <c r="M29">
+        <v>0.9731748229860012</v>
+      </c>
+      <c r="N29">
+        <v>0.9731748229860012</v>
+      </c>
+      <c r="O29">
+        <v>0.9681899561549944</v>
+      </c>
+      <c r="P29">
+        <v>0.9928281838031697</v>
+      </c>
+      <c r="Q29">
+        <v>0.9928281838031697</v>
+      </c>
+      <c r="R29">
+        <v>1.002654864211754</v>
+      </c>
+      <c r="S29">
+        <v>1.002654864211754</v>
+      </c>
+      <c r="T29">
+        <v>0.9976304318842518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9428900556172347</v>
+      </c>
+      <c r="D30">
+        <v>1.003871469860566</v>
+      </c>
+      <c r="E30">
+        <v>1.035579538863016</v>
+      </c>
+      <c r="F30">
+        <v>0.9428900556172347</v>
+      </c>
+      <c r="G30">
+        <v>0.9752590264351482</v>
+      </c>
+      <c r="H30">
+        <v>0.9805797367596244</v>
+      </c>
+      <c r="I30">
+        <v>1.035579538863016</v>
+      </c>
+      <c r="J30">
+        <v>1.012896472159153</v>
+      </c>
+      <c r="K30">
+        <v>1.035579538863016</v>
+      </c>
+      <c r="L30">
+        <v>1.003871469860566</v>
+      </c>
+      <c r="M30">
+        <v>0.9733807627389002</v>
+      </c>
+      <c r="N30">
+        <v>0.9733807627389002</v>
+      </c>
+      <c r="O30">
+        <v>0.9757804207458083</v>
+      </c>
+      <c r="P30">
+        <v>0.9941136881136057</v>
+      </c>
+      <c r="Q30">
+        <v>0.9941136881136057</v>
+      </c>
+      <c r="R30">
+        <v>1.004480150800958</v>
+      </c>
+      <c r="S30">
+        <v>1.004480150800958</v>
+      </c>
+      <c r="T30">
+        <v>0.9918460499491237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.225991325718878</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.891220051139653</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>1.090861425789766</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.225991325718878</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.8079582822278553</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.090059300314923</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.090861425789766</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.948570652038691</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>1.090861425789766</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.891220051139653</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.058605688429265</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.058605688429265</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.069090225724485</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.069357600882766</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.069357600882766</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.074733557109516</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.074733557109516</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.009110172871628</v>
       </c>
     </row>
